--- a/daily released.xlsx
+++ b/daily released.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liang/code/shanghai-2022Mar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D141BA3-B1C4-F645-B94C-FB6E04DDBD59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01F97256-36C0-BA4A-A6D7-427F19299BC7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5420" yWindow="460" windowWidth="19840" windowHeight="15000" xr2:uid="{B61748C7-A350-CD4C-8140-E3EEE49B7E25}"/>
+    <workbookView xWindow="6660" yWindow="460" windowWidth="19840" windowHeight="15000" xr2:uid="{B61748C7-A350-CD4C-8140-E3EEE49B7E25}"/>
   </bookViews>
   <sheets>
-    <sheet name="0414" sheetId="1" r:id="rId1"/>
+    <sheet name="0415" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>浦东新区</t>
   </si>
@@ -97,7 +97,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>未计算</t>
+    <t>累计</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可计算但未计算</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -505,8 +509,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="1" customFormat="1" ht="22" customHeight="1">
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
+      <c r="C1" s="2">
+        <v>44666</v>
+      </c>
+      <c r="D1" s="2">
+        <v>44665</v>
+      </c>
       <c r="E1" s="2">
         <v>44664</v>
       </c>
@@ -554,6 +562,9 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
+      <c r="D2">
+        <v>96</v>
+      </c>
       <c r="E2">
         <v>140</v>
       </c>
@@ -598,6 +609,9 @@
     <row r="3" spans="1:18">
       <c r="A3" t="s">
         <v>1</v>
+      </c>
+      <c r="D3">
+        <v>11</v>
       </c>
       <c r="E3">
         <v>46</v>
@@ -644,6 +658,9 @@
       <c r="A4" t="s">
         <v>2</v>
       </c>
+      <c r="D4">
+        <v>18</v>
+      </c>
       <c r="E4">
         <v>11</v>
       </c>
@@ -689,6 +706,9 @@
       <c r="A5" t="s">
         <v>3</v>
       </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
       <c r="E5">
         <v>16</v>
       </c>
@@ -733,6 +753,9 @@
     <row r="6" spans="1:18">
       <c r="A6" t="s">
         <v>4</v>
+      </c>
+      <c r="D6">
+        <v>26</v>
       </c>
       <c r="E6">
         <v>10</v>
@@ -779,6 +802,9 @@
       <c r="A7" t="s">
         <v>5</v>
       </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
       <c r="E7">
         <v>10</v>
       </c>
@@ -824,6 +850,9 @@
       <c r="A8" t="s">
         <v>6</v>
       </c>
+      <c r="D8">
+        <v>22</v>
+      </c>
       <c r="E8">
         <v>20</v>
       </c>
@@ -869,6 +898,9 @@
       <c r="A9" t="s">
         <v>7</v>
       </c>
+      <c r="D9">
+        <v>8</v>
+      </c>
       <c r="E9">
         <v>7</v>
       </c>
@@ -914,6 +946,9 @@
       <c r="A10" t="s">
         <v>8</v>
       </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
       <c r="E10">
         <v>32</v>
       </c>
@@ -959,6 +994,9 @@
       <c r="A11" t="s">
         <v>9</v>
       </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
       <c r="E11">
         <v>16</v>
       </c>
@@ -1004,6 +1042,9 @@
       <c r="A12" t="s">
         <v>10</v>
       </c>
+      <c r="D12">
+        <v>12</v>
+      </c>
       <c r="E12">
         <v>31</v>
       </c>
@@ -1049,6 +1090,9 @@
       <c r="A13" t="s">
         <v>11</v>
       </c>
+      <c r="D13">
+        <v>7</v>
+      </c>
       <c r="E13">
         <v>8</v>
       </c>
@@ -1094,6 +1138,9 @@
       <c r="A14" t="s">
         <v>12</v>
       </c>
+      <c r="D14">
+        <v>12</v>
+      </c>
       <c r="E14">
         <v>20</v>
       </c>
@@ -1139,6 +1186,9 @@
       <c r="A15" t="s">
         <v>13</v>
       </c>
+      <c r="D15">
+        <v>7</v>
+      </c>
       <c r="E15">
         <v>10</v>
       </c>
@@ -1184,6 +1234,9 @@
       <c r="A16" t="s">
         <v>14</v>
       </c>
+      <c r="D16">
+        <v>40</v>
+      </c>
       <c r="E16">
         <v>17</v>
       </c>
@@ -1229,6 +1282,9 @@
       <c r="A17" t="s">
         <v>15</v>
       </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
       <c r="E17">
         <v>9</v>
       </c>
@@ -1274,6 +1330,9 @@
       <c r="A18" t="s">
         <v>16</v>
       </c>
+      <c r="D18">
+        <v>8067</v>
+      </c>
       <c r="E18">
         <v>7312</v>
       </c>
@@ -1321,6 +1380,9 @@
       <c r="A19" t="s">
         <v>17</v>
       </c>
+      <c r="D19">
+        <v>22499</v>
+      </c>
       <c r="E19">
         <v>21979</v>
       </c>
@@ -1360,14 +1422,17 @@
       <c r="Q19">
         <v>8881</v>
       </c>
-      <c r="R19" t="s">
-        <v>20</v>
+      <c r="R19" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:18">
       <c r="A20" t="s">
         <v>18</v>
       </c>
+      <c r="D20">
+        <v>2466</v>
+      </c>
       <c r="E20">
         <v>2249</v>
       </c>
@@ -1407,7 +1472,9 @@
       <c r="Q20">
         <v>95</v>
       </c>
-      <c r="R20" s="4"/>
+      <c r="R20" s="4" t="s">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/daily released.xlsx
+++ b/daily released.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liang/code/shanghai-2022Mar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01F97256-36C0-BA4A-A6D7-427F19299BC7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF4D53AB-F962-5340-8EEC-676908706FFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6660" yWindow="460" windowWidth="19840" windowHeight="15000" xr2:uid="{B61748C7-A350-CD4C-8140-E3EEE49B7E25}"/>
+    <workbookView xWindow="5760" yWindow="460" windowWidth="19840" windowHeight="15000" xr2:uid="{B61748C7-A350-CD4C-8140-E3EEE49B7E25}"/>
   </bookViews>
   <sheets>
     <sheet name="0415" sheetId="1" r:id="rId1"/>
@@ -495,393 +495,414 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4A5D483-70AF-4347-8031-2888AEA9692A}">
-  <dimension ref="A1:R20"/>
+  <dimension ref="A1:U20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R20" sqref="R20"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="11.83203125" customWidth="1"/>
-    <col min="2" max="18" width="6.1640625" customWidth="1"/>
-    <col min="19" max="19" width="71.1640625" customWidth="1"/>
+    <col min="2" max="21" width="6.1640625" customWidth="1"/>
+    <col min="22" max="22" width="71.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1" ht="22" customHeight="1">
+    <row r="1" spans="1:21" s="1" customFormat="1" ht="22" customHeight="1">
       <c r="C1" s="2">
+        <v>44669</v>
+      </c>
+      <c r="D1" s="2">
+        <v>44668</v>
+      </c>
+      <c r="E1" s="2">
+        <v>44667</v>
+      </c>
+      <c r="F1" s="2">
         <v>44666</v>
       </c>
-      <c r="D1" s="2">
+      <c r="G1" s="2">
         <v>44665</v>
       </c>
-      <c r="E1" s="2">
+      <c r="H1" s="2">
         <v>44664</v>
       </c>
-      <c r="F1" s="2">
+      <c r="I1" s="2">
         <v>44663</v>
       </c>
-      <c r="G1" s="2">
+      <c r="J1" s="2">
         <v>44662</v>
       </c>
-      <c r="H1" s="2">
+      <c r="K1" s="2">
         <v>44661</v>
       </c>
-      <c r="I1" s="2">
+      <c r="L1" s="2">
         <v>44660</v>
       </c>
-      <c r="J1" s="2">
+      <c r="M1" s="2">
         <v>44659</v>
       </c>
-      <c r="K1" s="2">
+      <c r="N1" s="2">
         <v>44658</v>
       </c>
-      <c r="L1" s="2">
+      <c r="O1" s="2">
         <v>44657</v>
       </c>
-      <c r="M1" s="2">
+      <c r="P1" s="2">
         <v>44656</v>
       </c>
-      <c r="N1" s="2">
+      <c r="Q1" s="2">
         <v>44655</v>
       </c>
-      <c r="O1" s="2">
+      <c r="R1" s="2">
         <v>44654</v>
       </c>
-      <c r="P1" s="2">
+      <c r="S1" s="2">
         <v>44653</v>
       </c>
-      <c r="Q1" s="2">
+      <c r="T1" s="2">
         <v>44652</v>
       </c>
-      <c r="R1" s="5">
+      <c r="U1" s="5">
         <v>44651</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:21">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="D2">
+      <c r="F2">
+        <v>119</v>
+      </c>
+      <c r="G2">
         <v>96</v>
       </c>
-      <c r="E2">
+      <c r="H2">
         <v>140</v>
       </c>
-      <c r="F2">
+      <c r="I2">
         <v>115</v>
       </c>
-      <c r="G2">
+      <c r="J2">
         <v>222</v>
       </c>
-      <c r="H2">
+      <c r="K2">
         <v>108</v>
       </c>
-      <c r="I2">
+      <c r="L2">
         <v>34</v>
       </c>
-      <c r="J2" s="3">
+      <c r="M2" s="3">
         <v>177</v>
       </c>
-      <c r="K2">
+      <c r="N2">
         <v>7</v>
       </c>
-      <c r="L2">
+      <c r="O2">
         <v>40</v>
       </c>
-      <c r="M2">
+      <c r="P2">
         <v>37</v>
       </c>
-      <c r="N2">
+      <c r="Q2">
         <v>30</v>
       </c>
-      <c r="O2">
+      <c r="R2">
         <v>37</v>
       </c>
-      <c r="P2">
+      <c r="S2">
         <v>25</v>
       </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2" s="4"/>
-    </row>
-    <row r="3" spans="1:18">
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2" s="4"/>
+    </row>
+    <row r="3" spans="1:21">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="D3">
+      <c r="F3">
+        <v>29</v>
+      </c>
+      <c r="G3">
         <v>11</v>
       </c>
-      <c r="E3">
+      <c r="H3">
         <v>46</v>
       </c>
-      <c r="F3">
+      <c r="I3">
         <v>14</v>
       </c>
-      <c r="G3">
+      <c r="J3">
         <v>43</v>
       </c>
-      <c r="H3">
+      <c r="K3">
         <v>10</v>
       </c>
-      <c r="I3">
+      <c r="L3">
         <v>20</v>
       </c>
-      <c r="J3" s="3">
-        <v>3</v>
-      </c>
-      <c r="K3">
+      <c r="M3" s="3">
+        <v>3</v>
+      </c>
+      <c r="N3">
         <v>18</v>
       </c>
-      <c r="L3">
+      <c r="O3">
         <v>4</v>
       </c>
-      <c r="M3">
+      <c r="P3">
         <v>14</v>
       </c>
-      <c r="N3">
+      <c r="Q3">
         <v>13</v>
       </c>
-      <c r="O3">
+      <c r="R3">
         <v>9</v>
       </c>
-      <c r="P3">
+      <c r="S3">
         <v>5</v>
       </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3" s="4"/>
-    </row>
-    <row r="4" spans="1:18">
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3" s="4"/>
+    </row>
+    <row r="4" spans="1:21">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="D4">
+      <c r="F4">
+        <v>32</v>
+      </c>
+      <c r="G4">
         <v>18</v>
       </c>
-      <c r="E4">
+      <c r="H4">
         <v>11</v>
       </c>
-      <c r="F4">
+      <c r="I4">
         <v>23</v>
       </c>
-      <c r="G4">
+      <c r="J4">
         <v>15</v>
       </c>
-      <c r="H4">
+      <c r="K4">
         <v>9</v>
       </c>
-      <c r="I4">
+      <c r="L4">
         <v>9</v>
       </c>
-      <c r="J4" s="3">
-        <v>1</v>
-      </c>
-      <c r="K4">
+      <c r="M4" s="3">
+        <v>1</v>
+      </c>
+      <c r="N4">
         <v>8</v>
-      </c>
-      <c r="L4">
-        <v>7</v>
-      </c>
-      <c r="M4">
-        <v>7</v>
-      </c>
-      <c r="N4">
-        <v>6</v>
       </c>
       <c r="O4">
         <v>7</v>
       </c>
       <c r="P4">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4" s="4"/>
-    </row>
-    <row r="5" spans="1:18">
+        <v>6</v>
+      </c>
+      <c r="R4">
+        <v>7</v>
+      </c>
+      <c r="S4">
+        <v>3</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4" s="4"/>
+    </row>
+    <row r="5" spans="1:21">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="D5">
-        <v>3</v>
-      </c>
-      <c r="E5">
+      <c r="F5">
+        <v>35</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
+      <c r="H5">
         <v>16</v>
       </c>
-      <c r="F5">
+      <c r="I5">
         <v>45</v>
       </c>
-      <c r="G5">
+      <c r="J5">
         <v>4</v>
       </c>
-      <c r="H5">
+      <c r="K5">
         <v>14</v>
       </c>
-      <c r="I5">
+      <c r="L5">
         <v>16</v>
       </c>
-      <c r="J5" s="3">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>3</v>
-      </c>
-      <c r="L5">
+      <c r="M5" s="3">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>3</v>
+      </c>
+      <c r="O5">
         <v>7</v>
       </c>
-      <c r="M5">
+      <c r="P5">
         <v>2</v>
       </c>
-      <c r="N5">
+      <c r="Q5">
         <v>10</v>
       </c>
-      <c r="O5">
-        <v>3</v>
-      </c>
-      <c r="P5">
+      <c r="R5">
+        <v>3</v>
+      </c>
+      <c r="S5">
         <v>14</v>
       </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5" s="4"/>
-    </row>
-    <row r="6" spans="1:18">
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5" s="4"/>
+    </row>
+    <row r="6" spans="1:21">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="D6">
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6">
         <v>26</v>
       </c>
-      <c r="E6">
+      <c r="H6">
         <v>10</v>
       </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
         <v>12</v>
       </c>
-      <c r="H6">
+      <c r="K6">
         <v>4</v>
       </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6" s="3">
-        <v>1</v>
-      </c>
-      <c r="K6">
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6" s="3">
+        <v>1</v>
+      </c>
+      <c r="N6">
         <v>12</v>
       </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
         <v>4</v>
       </c>
-      <c r="N6">
+      <c r="Q6">
         <v>7</v>
       </c>
-      <c r="O6">
-        <v>3</v>
-      </c>
-      <c r="P6">
+      <c r="R6">
+        <v>3</v>
+      </c>
+      <c r="S6">
         <v>2</v>
       </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6" s="4"/>
-    </row>
-    <row r="7" spans="1:18">
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6" s="4"/>
+    </row>
+    <row r="7" spans="1:21">
       <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="D7">
+      <c r="F7">
+        <v>22</v>
+      </c>
+      <c r="G7">
         <v>2</v>
       </c>
-      <c r="E7">
+      <c r="H7">
         <v>10</v>
       </c>
-      <c r="F7">
+      <c r="I7">
         <v>9</v>
       </c>
-      <c r="G7">
+      <c r="J7">
         <v>7</v>
       </c>
-      <c r="H7">
+      <c r="K7">
         <v>11</v>
       </c>
-      <c r="I7">
+      <c r="L7">
         <v>8</v>
       </c>
-      <c r="J7" s="3">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>4</v>
-      </c>
-      <c r="M7">
-        <v>3</v>
+      <c r="M7" s="3">
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O7">
         <v>4</v>
       </c>
       <c r="P7">
+        <v>3</v>
+      </c>
+      <c r="Q7">
+        <v>3</v>
+      </c>
+      <c r="R7">
+        <v>4</v>
+      </c>
+      <c r="S7">
         <v>5</v>
       </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7" s="4"/>
-    </row>
-    <row r="8" spans="1:18">
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7" s="4"/>
+    </row>
+    <row r="8" spans="1:21">
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="D8">
+      <c r="F8">
+        <v>6</v>
+      </c>
+      <c r="G8">
         <v>22</v>
       </c>
-      <c r="E8">
+      <c r="H8">
         <v>20</v>
       </c>
-      <c r="F8">
+      <c r="I8">
         <v>15</v>
       </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8">
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
         <v>9</v>
       </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
-      <c r="K8">
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8">
         <v>5</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>2</v>
-      </c>
-      <c r="N8">
-        <v>2</v>
       </c>
       <c r="O8">
         <v>1</v>
@@ -890,331 +911,352 @@
         <v>2</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-      <c r="R8" s="4"/>
-    </row>
-    <row r="9" spans="1:18">
+        <v>2</v>
+      </c>
+      <c r="R8">
+        <v>1</v>
+      </c>
+      <c r="S8">
+        <v>2</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8" s="4"/>
+    </row>
+    <row r="9" spans="1:21">
       <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="D9">
+      <c r="F9">
+        <v>13</v>
+      </c>
+      <c r="G9">
         <v>8</v>
       </c>
-      <c r="E9">
+      <c r="H9">
         <v>7</v>
       </c>
-      <c r="F9">
+      <c r="I9">
         <v>9</v>
       </c>
-      <c r="G9">
-        <v>3</v>
-      </c>
-      <c r="H9">
-        <v>4</v>
-      </c>
-      <c r="I9">
-        <v>3</v>
-      </c>
-      <c r="J9" s="3">
-        <v>5</v>
+      <c r="J9">
+        <v>3</v>
       </c>
       <c r="K9">
         <v>4</v>
       </c>
       <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="M9" s="3">
+        <v>5</v>
       </c>
       <c r="N9">
+        <v>4</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>1</v>
+      </c>
+      <c r="Q9">
         <v>5</v>
       </c>
-      <c r="O9">
-        <v>3</v>
-      </c>
-      <c r="P9">
+      <c r="R9">
+        <v>3</v>
+      </c>
+      <c r="S9">
         <v>2</v>
       </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-      <c r="R9" s="4"/>
-    </row>
-    <row r="10" spans="1:18">
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9" s="4"/>
+    </row>
+    <row r="10" spans="1:21">
       <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
+      <c r="F10">
+        <v>8</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
         <v>32</v>
       </c>
-      <c r="F10">
+      <c r="I10">
         <v>23</v>
       </c>
-      <c r="G10">
+      <c r="J10">
         <v>16</v>
       </c>
-      <c r="H10">
+      <c r="K10">
         <v>6</v>
       </c>
-      <c r="I10">
+      <c r="L10">
         <v>18</v>
       </c>
-      <c r="J10" s="3">
-        <v>0</v>
-      </c>
-      <c r="K10">
+      <c r="M10" s="3">
+        <v>0</v>
+      </c>
+      <c r="N10">
         <v>11</v>
       </c>
-      <c r="L10">
+      <c r="O10">
         <v>6</v>
       </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
         <v>15</v>
       </c>
-      <c r="O10">
+      <c r="R10">
         <v>5</v>
       </c>
-      <c r="P10">
-        <v>3</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-      <c r="R10" s="4"/>
-    </row>
-    <row r="11" spans="1:18">
+      <c r="S10">
+        <v>3</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10" s="4"/>
+    </row>
+    <row r="11" spans="1:21">
       <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="D11">
-        <v>3</v>
-      </c>
-      <c r="E11">
+      <c r="F11">
+        <v>3</v>
+      </c>
+      <c r="G11">
+        <v>3</v>
+      </c>
+      <c r="H11">
         <v>16</v>
       </c>
-      <c r="F11">
+      <c r="I11">
         <v>10</v>
       </c>
-      <c r="G11">
+      <c r="J11">
         <v>4</v>
       </c>
-      <c r="H11">
+      <c r="K11">
         <v>15</v>
       </c>
-      <c r="I11">
+      <c r="L11">
         <v>25</v>
       </c>
-      <c r="J11" s="3">
+      <c r="M11" s="3">
         <v>5</v>
       </c>
-      <c r="K11">
+      <c r="N11">
         <v>11</v>
       </c>
-      <c r="L11">
+      <c r="O11">
         <v>10</v>
       </c>
-      <c r="M11">
+      <c r="P11">
         <v>9</v>
       </c>
-      <c r="N11">
+      <c r="Q11">
         <v>4</v>
       </c>
-      <c r="O11">
+      <c r="R11">
         <v>19</v>
       </c>
-      <c r="P11">
+      <c r="S11">
         <v>4</v>
       </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-      <c r="R11" s="4"/>
-    </row>
-    <row r="12" spans="1:18">
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11" s="4"/>
+    </row>
+    <row r="12" spans="1:21">
       <c r="A12" t="s">
         <v>10</v>
       </c>
-      <c r="D12">
+      <c r="F12">
+        <v>25</v>
+      </c>
+      <c r="G12">
         <v>12</v>
       </c>
-      <c r="E12">
+      <c r="H12">
         <v>31</v>
       </c>
-      <c r="F12">
+      <c r="I12">
         <v>31</v>
       </c>
-      <c r="G12">
+      <c r="J12">
         <v>27</v>
       </c>
-      <c r="H12">
+      <c r="K12">
         <v>36</v>
       </c>
-      <c r="I12">
+      <c r="L12">
         <v>43</v>
       </c>
-      <c r="J12" s="3">
-        <v>1</v>
-      </c>
-      <c r="K12">
+      <c r="M12" s="3">
+        <v>1</v>
+      </c>
+      <c r="N12">
         <v>27</v>
       </c>
-      <c r="L12">
+      <c r="O12">
         <v>8</v>
       </c>
-      <c r="M12">
+      <c r="P12">
         <v>15</v>
       </c>
-      <c r="N12">
+      <c r="Q12">
         <v>22</v>
       </c>
-      <c r="O12">
+      <c r="R12">
         <v>15</v>
       </c>
-      <c r="P12">
+      <c r="S12">
         <v>14</v>
       </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-      <c r="R12" s="4"/>
-    </row>
-    <row r="13" spans="1:18">
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12" s="4"/>
+    </row>
+    <row r="13" spans="1:21">
       <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="D13">
+      <c r="F13">
+        <v>14</v>
+      </c>
+      <c r="G13">
         <v>7</v>
       </c>
-      <c r="E13">
+      <c r="H13">
         <v>8</v>
       </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>3</v>
-      </c>
       <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13" s="3">
+        <v>1</v>
+      </c>
+      <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13">
         <v>2</v>
       </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13">
+      <c r="O13">
+        <v>1</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
         <v>6</v>
       </c>
-      <c r="O13">
+      <c r="R13">
         <v>8</v>
       </c>
-      <c r="P13">
-        <v>1</v>
-      </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-      <c r="R13" s="4"/>
-    </row>
-    <row r="14" spans="1:18">
+      <c r="S13">
+        <v>1</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13" s="4"/>
+    </row>
+    <row r="14" spans="1:21">
       <c r="A14" t="s">
         <v>12</v>
       </c>
-      <c r="D14">
+      <c r="F14">
+        <v>48</v>
+      </c>
+      <c r="G14">
         <v>12</v>
-      </c>
-      <c r="E14">
-        <v>20</v>
-      </c>
-      <c r="F14">
-        <v>13</v>
-      </c>
-      <c r="G14">
-        <v>18</v>
       </c>
       <c r="H14">
         <v>20</v>
       </c>
       <c r="I14">
-        <v>6</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="J14">
+        <v>18</v>
       </c>
       <c r="K14">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="L14">
         <v>6</v>
       </c>
-      <c r="M14">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>12</v>
+      </c>
+      <c r="O14">
+        <v>6</v>
+      </c>
+      <c r="P14">
         <v>2</v>
       </c>
-      <c r="N14">
+      <c r="Q14">
         <v>4</v>
       </c>
-      <c r="O14">
-        <v>1</v>
-      </c>
-      <c r="P14">
-        <v>1</v>
-      </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-      <c r="R14" s="4"/>
-    </row>
-    <row r="15" spans="1:18">
+      <c r="R14">
+        <v>1</v>
+      </c>
+      <c r="S14">
+        <v>1</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14" s="4"/>
+    </row>
+    <row r="15" spans="1:21">
       <c r="A15" t="s">
         <v>13</v>
       </c>
-      <c r="D15">
-        <v>7</v>
-      </c>
-      <c r="E15">
-        <v>10</v>
-      </c>
       <c r="F15">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="G15">
         <v>7</v>
       </c>
       <c r="H15">
+        <v>10</v>
+      </c>
+      <c r="I15">
+        <v>5</v>
+      </c>
+      <c r="J15">
+        <v>7</v>
+      </c>
+      <c r="K15">
         <v>12</v>
       </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3">
-        <v>1</v>
-      </c>
-      <c r="K15">
-        <v>1</v>
-      </c>
       <c r="L15">
-        <v>3</v>
-      </c>
-      <c r="M15">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>1</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1223,97 +1265,103 @@
         <v>3</v>
       </c>
       <c r="P15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-      <c r="R15" s="4"/>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1</v>
+      </c>
+      <c r="R15">
+        <v>3</v>
+      </c>
+      <c r="S15">
+        <v>1</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15" s="4"/>
+    </row>
+    <row r="16" spans="1:21">
       <c r="A16" t="s">
         <v>14</v>
       </c>
-      <c r="D16">
+      <c r="F16">
+        <v>24</v>
+      </c>
+      <c r="G16">
         <v>40</v>
       </c>
-      <c r="E16">
+      <c r="H16">
         <v>17</v>
       </c>
-      <c r="F16">
+      <c r="I16">
         <v>20</v>
       </c>
-      <c r="G16">
+      <c r="J16">
         <v>26</v>
       </c>
-      <c r="H16">
+      <c r="K16">
         <v>7</v>
       </c>
-      <c r="I16">
+      <c r="L16">
         <v>15</v>
       </c>
-      <c r="J16" s="3">
-        <v>0</v>
-      </c>
-      <c r="K16">
+      <c r="M16" s="3">
+        <v>0</v>
+      </c>
+      <c r="N16">
         <v>2</v>
       </c>
-      <c r="L16">
+      <c r="O16">
         <v>4</v>
       </c>
-      <c r="M16">
+      <c r="P16">
         <v>4</v>
       </c>
-      <c r="N16">
+      <c r="Q16">
         <v>5</v>
       </c>
-      <c r="O16">
-        <v>1</v>
-      </c>
-      <c r="P16">
-        <v>3</v>
-      </c>
-      <c r="Q16">
-        <v>0</v>
-      </c>
-      <c r="R16" s="4"/>
-    </row>
-    <row r="17" spans="1:18">
+      <c r="R16">
+        <v>1</v>
+      </c>
+      <c r="S16">
+        <v>3</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16" s="4"/>
+    </row>
+    <row r="17" spans="1:21">
       <c r="A17" t="s">
         <v>15</v>
       </c>
-      <c r="D17">
-        <v>2</v>
-      </c>
-      <c r="E17">
-        <v>9</v>
-      </c>
       <c r="F17">
         <v>9</v>
       </c>
       <c r="G17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H17">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I17">
-        <v>1</v>
-      </c>
-      <c r="J17" s="3">
+        <v>9</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17" s="3">
         <v>4</v>
       </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
       <c r="N17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1322,157 +1370,175 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-      <c r="R17" s="4"/>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17" s="4"/>
+    </row>
+    <row r="18" spans="1:21">
       <c r="A18" t="s">
         <v>16</v>
       </c>
-      <c r="D18">
+      <c r="F18">
+        <v>8976</v>
+      </c>
+      <c r="G18">
         <v>8067</v>
       </c>
-      <c r="E18">
+      <c r="H18">
         <v>7312</v>
       </c>
-      <c r="F18">
+      <c r="I18">
         <v>6243</v>
       </c>
-      <c r="G18">
+      <c r="J18">
         <v>5168</v>
       </c>
-      <c r="H18">
+      <c r="K18">
         <v>3937</v>
       </c>
-      <c r="I18">
+      <c r="L18">
         <v>3184</v>
       </c>
-      <c r="J18">
+      <c r="M18">
         <v>2704</v>
       </c>
-      <c r="K18">
+      <c r="N18">
         <v>2122</v>
       </c>
-      <c r="L18">
+      <c r="O18">
         <v>1770</v>
       </c>
-      <c r="M18">
+      <c r="P18">
         <v>1479</v>
       </c>
-      <c r="N18">
+      <c r="Q18">
         <v>1187</v>
       </c>
-      <c r="O18">
+      <c r="R18">
         <v>863</v>
       </c>
-      <c r="P18">
+      <c r="S18">
         <v>518</v>
       </c>
-      <c r="Q18">
+      <c r="T18">
         <v>259</v>
       </c>
-      <c r="R18" s="4" t="s">
+      <c r="U18" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:18">
+    <row r="19" spans="1:21">
       <c r="A19" t="s">
         <v>17</v>
       </c>
-      <c r="D19">
+      <c r="F19">
+        <v>22848</v>
+      </c>
+      <c r="G19">
         <v>22499</v>
       </c>
-      <c r="E19">
+      <c r="H19">
         <v>21979</v>
       </c>
-      <c r="F19">
+      <c r="I19">
         <v>21473</v>
       </c>
-      <c r="G19">
+      <c r="J19">
         <v>20602</v>
       </c>
-      <c r="H19">
+      <c r="K19">
         <v>19791</v>
       </c>
-      <c r="I19">
+      <c r="L19">
         <v>18532</v>
       </c>
-      <c r="J19">
+      <c r="M19">
         <v>17656</v>
       </c>
-      <c r="K19">
+      <c r="N19">
         <v>16199</v>
       </c>
-      <c r="L19">
+      <c r="O19">
         <v>14933</v>
       </c>
-      <c r="M19">
+      <c r="P19">
         <v>13345</v>
       </c>
-      <c r="N19">
+      <c r="Q19">
         <v>12270</v>
       </c>
-      <c r="O19">
+      <c r="R19">
         <v>11145</v>
       </c>
-      <c r="P19">
+      <c r="S19">
         <v>10071</v>
       </c>
-      <c r="Q19">
+      <c r="T19">
         <v>8881</v>
       </c>
-      <c r="R19" s="4" t="s">
+      <c r="U19" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:18">
+    <row r="20" spans="1:21">
       <c r="A20" t="s">
         <v>18</v>
       </c>
-      <c r="D20">
+      <c r="F20">
+        <v>2837</v>
+      </c>
+      <c r="G20">
         <v>2466</v>
       </c>
-      <c r="E20">
+      <c r="H20">
         <v>2249</v>
       </c>
-      <c r="F20">
+      <c r="I20">
         <v>1884</v>
       </c>
-      <c r="G20">
+      <c r="J20">
         <v>1582</v>
       </c>
-      <c r="H20">
+      <c r="K20">
         <v>1218</v>
       </c>
-      <c r="I20">
+      <c r="L20">
         <v>991</v>
       </c>
-      <c r="J20">
+      <c r="M20">
         <v>815</v>
       </c>
-      <c r="K20">
+      <c r="N20">
         <v>654</v>
       </c>
-      <c r="L20">
+      <c r="O20">
         <v>556</v>
       </c>
-      <c r="M20">
+      <c r="P20">
         <v>483</v>
       </c>
-      <c r="N20">
+      <c r="Q20">
         <v>397</v>
       </c>
-      <c r="O20">
+      <c r="R20">
         <v>282</v>
       </c>
-      <c r="P20">
+      <c r="S20">
         <v>171</v>
       </c>
-      <c r="Q20">
+      <c r="T20">
         <v>95</v>
       </c>
-      <c r="R20" s="4" t="s">
+      <c r="U20" s="4" t="s">
         <v>20</v>
       </c>
     </row>

--- a/daily released.xlsx
+++ b/daily released.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liang/code/shanghai-2022Mar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF4D53AB-F962-5340-8EEC-676908706FFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EB8696B-7051-0045-B73A-25DF43E6AAED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="460" windowWidth="19840" windowHeight="15000" xr2:uid="{B61748C7-A350-CD4C-8140-E3EEE49B7E25}"/>
+    <workbookView xWindow="8400" yWindow="460" windowWidth="19840" windowHeight="15000" xr2:uid="{B61748C7-A350-CD4C-8140-E3EEE49B7E25}"/>
   </bookViews>
   <sheets>
     <sheet name="0415" sheetId="1" r:id="rId1"/>
@@ -497,8 +497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4A5D483-70AF-4347-8031-2888AEA9692A}">
   <dimension ref="A1:U20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22:D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -571,6 +571,9 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
+      <c r="E2">
+        <v>46</v>
+      </c>
       <c r="F2">
         <v>119</v>
       </c>
@@ -621,6 +624,9 @@
     <row r="3" spans="1:21">
       <c r="A3" t="s">
         <v>1</v>
+      </c>
+      <c r="E3">
+        <v>46</v>
       </c>
       <c r="F3">
         <v>29</v>
@@ -673,6 +679,9 @@
       <c r="A4" t="s">
         <v>2</v>
       </c>
+      <c r="E4">
+        <v>50</v>
+      </c>
       <c r="F4">
         <v>32</v>
       </c>
@@ -723,6 +732,9 @@
     <row r="5" spans="1:21">
       <c r="A5" t="s">
         <v>3</v>
+      </c>
+      <c r="E5">
+        <v>47</v>
       </c>
       <c r="F5">
         <v>35</v>
@@ -775,6 +787,9 @@
       <c r="A6" t="s">
         <v>4</v>
       </c>
+      <c r="E6">
+        <v>8</v>
+      </c>
       <c r="F6">
         <v>3</v>
       </c>
@@ -826,6 +841,9 @@
       <c r="A7" t="s">
         <v>5</v>
       </c>
+      <c r="E7">
+        <v>24</v>
+      </c>
       <c r="F7">
         <v>22</v>
       </c>
@@ -877,6 +895,9 @@
       <c r="A8" t="s">
         <v>6</v>
       </c>
+      <c r="E8">
+        <v>49</v>
+      </c>
       <c r="F8">
         <v>6</v>
       </c>
@@ -928,6 +949,9 @@
       <c r="A9" t="s">
         <v>7</v>
       </c>
+      <c r="E9">
+        <v>17</v>
+      </c>
       <c r="F9">
         <v>13</v>
       </c>
@@ -979,6 +1003,9 @@
       <c r="A10" t="s">
         <v>8</v>
       </c>
+      <c r="E10">
+        <v>29</v>
+      </c>
       <c r="F10">
         <v>8</v>
       </c>
@@ -1030,6 +1057,9 @@
       <c r="A11" t="s">
         <v>9</v>
       </c>
+      <c r="E11">
+        <v>7</v>
+      </c>
       <c r="F11">
         <v>3</v>
       </c>
@@ -1081,6 +1111,9 @@
       <c r="A12" t="s">
         <v>10</v>
       </c>
+      <c r="E12">
+        <v>72</v>
+      </c>
       <c r="F12">
         <v>25</v>
       </c>
@@ -1132,6 +1165,9 @@
       <c r="A13" t="s">
         <v>11</v>
       </c>
+      <c r="E13">
+        <v>7</v>
+      </c>
       <c r="F13">
         <v>14</v>
       </c>
@@ -1183,6 +1219,9 @@
       <c r="A14" t="s">
         <v>12</v>
       </c>
+      <c r="E14">
+        <v>43</v>
+      </c>
       <c r="F14">
         <v>48</v>
       </c>
@@ -1234,6 +1273,9 @@
       <c r="A15" t="s">
         <v>13</v>
       </c>
+      <c r="E15">
+        <v>26</v>
+      </c>
       <c r="F15">
         <v>16</v>
       </c>
@@ -1285,6 +1327,9 @@
       <c r="A16" t="s">
         <v>14</v>
       </c>
+      <c r="E16">
+        <v>32</v>
+      </c>
       <c r="F16">
         <v>24</v>
       </c>
@@ -1336,6 +1381,9 @@
       <c r="A17" t="s">
         <v>15</v>
       </c>
+      <c r="E17">
+        <v>6</v>
+      </c>
       <c r="F17">
         <v>9</v>
       </c>
@@ -1387,6 +1435,9 @@
       <c r="A18" t="s">
         <v>16</v>
       </c>
+      <c r="E18">
+        <v>10242</v>
+      </c>
       <c r="F18">
         <v>8976</v>
       </c>
@@ -1440,6 +1491,9 @@
       <c r="A19" t="s">
         <v>17</v>
       </c>
+      <c r="E19">
+        <v>23119</v>
+      </c>
       <c r="F19">
         <v>22848</v>
       </c>
@@ -1492,6 +1546,9 @@
     <row r="20" spans="1:21">
       <c r="A20" t="s">
         <v>18</v>
+      </c>
+      <c r="E20">
+        <v>3297</v>
       </c>
       <c r="F20">
         <v>2837</v>

--- a/daily released.xlsx
+++ b/daily released.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liang/code/shanghai-2022Mar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EB8696B-7051-0045-B73A-25DF43E6AAED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A604A720-E3F0-3A4B-9A7C-46636B4C2623}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8400" yWindow="460" windowWidth="19840" windowHeight="15000" xr2:uid="{B61748C7-A350-CD4C-8140-E3EEE49B7E25}"/>
+    <workbookView xWindow="4480" yWindow="460" windowWidth="19840" windowHeight="13820" xr2:uid="{B61748C7-A350-CD4C-8140-E3EEE49B7E25}"/>
   </bookViews>
   <sheets>
-    <sheet name="0415" sheetId="1" r:id="rId1"/>
+    <sheet name="0417" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -495,822 +495,864 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4A5D483-70AF-4347-8031-2888AEA9692A}">
-  <dimension ref="A1:U20"/>
+  <dimension ref="A1:W20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22:D37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="11.83203125" customWidth="1"/>
-    <col min="2" max="21" width="6.1640625" customWidth="1"/>
-    <col min="22" max="22" width="71.1640625" customWidth="1"/>
+    <col min="2" max="23" width="6.1640625" customWidth="1"/>
+    <col min="24" max="24" width="71.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="1" customFormat="1" ht="22" customHeight="1">
+    <row r="1" spans="1:23" s="1" customFormat="1" ht="22" customHeight="1">
       <c r="C1" s="2">
+        <v>44671</v>
+      </c>
+      <c r="D1" s="2">
+        <v>44670</v>
+      </c>
+      <c r="E1" s="2">
         <v>44669</v>
       </c>
-      <c r="D1" s="2">
+      <c r="F1" s="2">
         <v>44668</v>
       </c>
-      <c r="E1" s="2">
+      <c r="G1" s="2">
         <v>44667</v>
       </c>
-      <c r="F1" s="2">
+      <c r="H1" s="2">
         <v>44666</v>
       </c>
-      <c r="G1" s="2">
+      <c r="I1" s="2">
         <v>44665</v>
       </c>
-      <c r="H1" s="2">
+      <c r="J1" s="2">
         <v>44664</v>
       </c>
-      <c r="I1" s="2">
+      <c r="K1" s="2">
         <v>44663</v>
       </c>
-      <c r="J1" s="2">
+      <c r="L1" s="2">
         <v>44662</v>
       </c>
-      <c r="K1" s="2">
+      <c r="M1" s="2">
         <v>44661</v>
       </c>
-      <c r="L1" s="2">
+      <c r="N1" s="2">
         <v>44660</v>
       </c>
-      <c r="M1" s="2">
+      <c r="O1" s="2">
         <v>44659</v>
       </c>
-      <c r="N1" s="2">
+      <c r="P1" s="2">
         <v>44658</v>
       </c>
-      <c r="O1" s="2">
+      <c r="Q1" s="2">
         <v>44657</v>
       </c>
-      <c r="P1" s="2">
+      <c r="R1" s="2">
         <v>44656</v>
       </c>
-      <c r="Q1" s="2">
+      <c r="S1" s="2">
         <v>44655</v>
       </c>
-      <c r="R1" s="2">
+      <c r="T1" s="2">
         <v>44654</v>
       </c>
-      <c r="S1" s="2">
+      <c r="U1" s="2">
         <v>44653</v>
       </c>
-      <c r="T1" s="2">
+      <c r="V1" s="2">
         <v>44652</v>
       </c>
-      <c r="U1" s="5">
+      <c r="W1" s="5">
         <v>44651</v>
       </c>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:23">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="E2">
+      <c r="F2">
+        <v>74</v>
+      </c>
+      <c r="G2">
         <v>46</v>
       </c>
-      <c r="F2">
+      <c r="H2">
         <v>119</v>
       </c>
-      <c r="G2">
+      <c r="I2">
         <v>96</v>
       </c>
-      <c r="H2">
+      <c r="J2">
         <v>140</v>
       </c>
-      <c r="I2">
+      <c r="K2">
         <v>115</v>
       </c>
-      <c r="J2">
+      <c r="L2">
         <v>222</v>
       </c>
-      <c r="K2">
+      <c r="M2">
         <v>108</v>
       </c>
-      <c r="L2">
+      <c r="N2">
         <v>34</v>
       </c>
-      <c r="M2" s="3">
+      <c r="O2" s="3">
         <v>177</v>
       </c>
-      <c r="N2">
+      <c r="P2">
         <v>7</v>
       </c>
-      <c r="O2">
+      <c r="Q2">
         <v>40</v>
-      </c>
-      <c r="P2">
-        <v>37</v>
-      </c>
-      <c r="Q2">
-        <v>30</v>
       </c>
       <c r="R2">
         <v>37</v>
       </c>
       <c r="S2">
+        <v>30</v>
+      </c>
+      <c r="T2">
+        <v>37</v>
+      </c>
+      <c r="U2">
         <v>25</v>
       </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2" s="4"/>
-    </row>
-    <row r="3" spans="1:21">
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2" s="4"/>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="E3">
+      <c r="F3">
+        <v>52</v>
+      </c>
+      <c r="G3">
         <v>46</v>
       </c>
-      <c r="F3">
+      <c r="H3">
         <v>29</v>
       </c>
-      <c r="G3">
+      <c r="I3">
         <v>11</v>
       </c>
-      <c r="H3">
+      <c r="J3">
         <v>46</v>
       </c>
-      <c r="I3">
+      <c r="K3">
         <v>14</v>
       </c>
-      <c r="J3">
+      <c r="L3">
         <v>43</v>
       </c>
-      <c r="K3">
+      <c r="M3">
         <v>10</v>
       </c>
-      <c r="L3">
+      <c r="N3">
         <v>20</v>
       </c>
-      <c r="M3" s="3">
-        <v>3</v>
-      </c>
-      <c r="N3">
+      <c r="O3" s="3">
+        <v>3</v>
+      </c>
+      <c r="P3">
         <v>18</v>
       </c>
-      <c r="O3">
+      <c r="Q3">
         <v>4</v>
       </c>
-      <c r="P3">
+      <c r="R3">
         <v>14</v>
       </c>
-      <c r="Q3">
+      <c r="S3">
         <v>13</v>
       </c>
-      <c r="R3">
+      <c r="T3">
         <v>9</v>
       </c>
-      <c r="S3">
+      <c r="U3">
         <v>5</v>
       </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
-      <c r="U3" s="4"/>
-    </row>
-    <row r="4" spans="1:21">
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3" s="4"/>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="E4">
+      <c r="F4">
+        <v>42</v>
+      </c>
+      <c r="G4">
         <v>50</v>
       </c>
-      <c r="F4">
+      <c r="H4">
         <v>32</v>
       </c>
-      <c r="G4">
+      <c r="I4">
         <v>18</v>
       </c>
-      <c r="H4">
+      <c r="J4">
         <v>11</v>
       </c>
-      <c r="I4">
+      <c r="K4">
         <v>23</v>
       </c>
-      <c r="J4">
+      <c r="L4">
         <v>15</v>
       </c>
-      <c r="K4">
+      <c r="M4">
         <v>9</v>
       </c>
-      <c r="L4">
+      <c r="N4">
         <v>9</v>
       </c>
-      <c r="M4" s="3">
-        <v>1</v>
-      </c>
-      <c r="N4">
+      <c r="O4" s="3">
+        <v>1</v>
+      </c>
+      <c r="P4">
         <v>8</v>
       </c>
-      <c r="O4">
+      <c r="Q4">
         <v>7</v>
-      </c>
-      <c r="P4">
-        <v>7</v>
-      </c>
-      <c r="Q4">
-        <v>6</v>
       </c>
       <c r="R4">
         <v>7</v>
       </c>
       <c r="S4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="T4">
-        <v>0</v>
-      </c>
-      <c r="U4" s="4"/>
-    </row>
-    <row r="5" spans="1:21">
+        <v>7</v>
+      </c>
+      <c r="U4">
+        <v>3</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4" s="4"/>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="E5">
+      <c r="F5">
+        <v>15</v>
+      </c>
+      <c r="G5">
         <v>47</v>
       </c>
-      <c r="F5">
+      <c r="H5">
         <v>35</v>
       </c>
-      <c r="G5">
-        <v>3</v>
-      </c>
-      <c r="H5">
+      <c r="I5">
+        <v>3</v>
+      </c>
+      <c r="J5">
         <v>16</v>
       </c>
-      <c r="I5">
+      <c r="K5">
         <v>45</v>
       </c>
-      <c r="J5">
+      <c r="L5">
         <v>4</v>
       </c>
-      <c r="K5">
+      <c r="M5">
         <v>14</v>
       </c>
-      <c r="L5">
+      <c r="N5">
         <v>16</v>
       </c>
-      <c r="M5" s="3">
-        <v>1</v>
-      </c>
-      <c r="N5">
-        <v>3</v>
-      </c>
-      <c r="O5">
+      <c r="O5" s="3">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>3</v>
+      </c>
+      <c r="Q5">
         <v>7</v>
       </c>
-      <c r="P5">
+      <c r="R5">
         <v>2</v>
       </c>
-      <c r="Q5">
+      <c r="S5">
         <v>10</v>
       </c>
-      <c r="R5">
-        <v>3</v>
-      </c>
-      <c r="S5">
+      <c r="T5">
+        <v>3</v>
+      </c>
+      <c r="U5">
         <v>14</v>
       </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
-      <c r="U5" s="4"/>
-    </row>
-    <row r="6" spans="1:21">
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5" s="4"/>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="E6">
+      <c r="F6">
+        <v>14</v>
+      </c>
+      <c r="G6">
         <v>8</v>
       </c>
-      <c r="F6">
-        <v>3</v>
-      </c>
-      <c r="G6">
+      <c r="H6">
+        <v>3</v>
+      </c>
+      <c r="I6">
         <v>26</v>
       </c>
-      <c r="H6">
+      <c r="J6">
         <v>10</v>
       </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
         <v>12</v>
       </c>
-      <c r="K6">
+      <c r="M6">
         <v>4</v>
       </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6" s="3">
-        <v>1</v>
-      </c>
       <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6" s="3">
+        <v>1</v>
+      </c>
+      <c r="P6">
         <v>12</v>
       </c>
-      <c r="O6">
-        <v>1</v>
-      </c>
-      <c r="P6">
+      <c r="Q6">
+        <v>1</v>
+      </c>
+      <c r="R6">
         <v>4</v>
       </c>
-      <c r="Q6">
+      <c r="S6">
         <v>7</v>
       </c>
-      <c r="R6">
-        <v>3</v>
-      </c>
-      <c r="S6">
+      <c r="T6">
+        <v>3</v>
+      </c>
+      <c r="U6">
         <v>2</v>
       </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
-      <c r="U6" s="4"/>
-    </row>
-    <row r="7" spans="1:21">
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6" s="4"/>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="E7">
+      <c r="F7">
+        <v>12</v>
+      </c>
+      <c r="G7">
         <v>24</v>
       </c>
-      <c r="F7">
+      <c r="H7">
         <v>22</v>
       </c>
-      <c r="G7">
+      <c r="I7">
         <v>2</v>
       </c>
-      <c r="H7">
+      <c r="J7">
         <v>10</v>
       </c>
-      <c r="I7">
+      <c r="K7">
         <v>9</v>
       </c>
-      <c r="J7">
+      <c r="L7">
         <v>7</v>
       </c>
-      <c r="K7">
+      <c r="M7">
         <v>11</v>
       </c>
-      <c r="L7">
+      <c r="N7">
         <v>8</v>
       </c>
-      <c r="M7" s="3">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-      <c r="O7">
+      <c r="O7" s="3">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="Q7">
         <v>4</v>
       </c>
-      <c r="P7">
-        <v>3</v>
-      </c>
-      <c r="Q7">
-        <v>3</v>
-      </c>
       <c r="R7">
+        <v>3</v>
+      </c>
+      <c r="S7">
+        <v>3</v>
+      </c>
+      <c r="T7">
         <v>4</v>
       </c>
-      <c r="S7">
+      <c r="U7">
         <v>5</v>
       </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
-      <c r="U7" s="4"/>
-    </row>
-    <row r="8" spans="1:21">
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7" s="4"/>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="E8">
+      <c r="F8">
+        <v>23</v>
+      </c>
+      <c r="G8">
         <v>49</v>
       </c>
-      <c r="F8">
+      <c r="H8">
         <v>6</v>
       </c>
-      <c r="G8">
+      <c r="I8">
         <v>22</v>
       </c>
-      <c r="H8">
+      <c r="J8">
         <v>20</v>
       </c>
-      <c r="I8">
+      <c r="K8">
         <v>15</v>
       </c>
-      <c r="J8">
-        <v>1</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
       <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
         <v>9</v>
       </c>
-      <c r="M8" s="3">
-        <v>0</v>
-      </c>
-      <c r="N8">
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8">
         <v>5</v>
       </c>
-      <c r="O8">
-        <v>1</v>
-      </c>
-      <c r="P8">
+      <c r="Q8">
+        <v>1</v>
+      </c>
+      <c r="R8">
         <v>2</v>
-      </c>
-      <c r="Q8">
-        <v>2</v>
-      </c>
-      <c r="R8">
-        <v>1</v>
       </c>
       <c r="S8">
         <v>2</v>
       </c>
       <c r="T8">
-        <v>0</v>
-      </c>
-      <c r="U8" s="4"/>
-    </row>
-    <row r="9" spans="1:21">
+        <v>1</v>
+      </c>
+      <c r="U8">
+        <v>2</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8" s="4"/>
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="E9">
+      <c r="F9">
+        <v>31</v>
+      </c>
+      <c r="G9">
         <v>17</v>
       </c>
-      <c r="F9">
+      <c r="H9">
         <v>13</v>
       </c>
-      <c r="G9">
+      <c r="I9">
         <v>8</v>
       </c>
-      <c r="H9">
+      <c r="J9">
         <v>7</v>
       </c>
-      <c r="I9">
+      <c r="K9">
         <v>9</v>
       </c>
-      <c r="J9">
-        <v>3</v>
-      </c>
-      <c r="K9">
+      <c r="L9">
+        <v>3</v>
+      </c>
+      <c r="M9">
         <v>4</v>
       </c>
-      <c r="L9">
-        <v>3</v>
-      </c>
-      <c r="M9" s="3">
+      <c r="N9">
+        <v>3</v>
+      </c>
+      <c r="O9" s="3">
         <v>5</v>
       </c>
-      <c r="N9">
+      <c r="P9">
         <v>4</v>
       </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9">
-        <v>1</v>
-      </c>
       <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>1</v>
+      </c>
+      <c r="S9">
         <v>5</v>
       </c>
-      <c r="R9">
-        <v>3</v>
-      </c>
-      <c r="S9">
+      <c r="T9">
+        <v>3</v>
+      </c>
+      <c r="U9">
         <v>2</v>
       </c>
-      <c r="T9">
-        <v>0</v>
-      </c>
-      <c r="U9" s="4"/>
-    </row>
-    <row r="10" spans="1:21">
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9" s="4"/>
+    </row>
+    <row r="10" spans="1:23">
       <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="E10">
+      <c r="F10">
+        <v>30</v>
+      </c>
+      <c r="G10">
         <v>29</v>
       </c>
-      <c r="F10">
+      <c r="H10">
         <v>8</v>
       </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10">
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
         <v>32</v>
       </c>
-      <c r="I10">
+      <c r="K10">
         <v>23</v>
       </c>
-      <c r="J10">
+      <c r="L10">
         <v>16</v>
       </c>
-      <c r="K10">
+      <c r="M10">
         <v>6</v>
       </c>
-      <c r="L10">
+      <c r="N10">
         <v>18</v>
       </c>
-      <c r="M10" s="3">
-        <v>0</v>
-      </c>
-      <c r="N10">
+      <c r="O10" s="3">
+        <v>0</v>
+      </c>
+      <c r="P10">
         <v>11</v>
       </c>
-      <c r="O10">
+      <c r="Q10">
         <v>6</v>
       </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-      <c r="Q10">
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
         <v>15</v>
       </c>
-      <c r="R10">
+      <c r="T10">
         <v>5</v>
       </c>
-      <c r="S10">
-        <v>3</v>
-      </c>
-      <c r="T10">
-        <v>0</v>
-      </c>
-      <c r="U10" s="4"/>
-    </row>
-    <row r="11" spans="1:21">
+      <c r="U10">
+        <v>3</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10" s="4"/>
+    </row>
+    <row r="11" spans="1:23">
       <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="E11">
+      <c r="F11">
+        <v>16</v>
+      </c>
+      <c r="G11">
         <v>7</v>
       </c>
-      <c r="F11">
-        <v>3</v>
-      </c>
-      <c r="G11">
-        <v>3</v>
-      </c>
       <c r="H11">
+        <v>3</v>
+      </c>
+      <c r="I11">
+        <v>3</v>
+      </c>
+      <c r="J11">
         <v>16</v>
       </c>
-      <c r="I11">
+      <c r="K11">
         <v>10</v>
       </c>
-      <c r="J11">
+      <c r="L11">
         <v>4</v>
       </c>
-      <c r="K11">
+      <c r="M11">
         <v>15</v>
       </c>
-      <c r="L11">
+      <c r="N11">
         <v>25</v>
       </c>
-      <c r="M11" s="3">
+      <c r="O11" s="3">
         <v>5</v>
       </c>
-      <c r="N11">
+      <c r="P11">
         <v>11</v>
       </c>
-      <c r="O11">
+      <c r="Q11">
         <v>10</v>
       </c>
-      <c r="P11">
+      <c r="R11">
         <v>9</v>
-      </c>
-      <c r="Q11">
-        <v>4</v>
-      </c>
-      <c r="R11">
-        <v>19</v>
       </c>
       <c r="S11">
         <v>4</v>
       </c>
       <c r="T11">
-        <v>0</v>
-      </c>
-      <c r="U11" s="4"/>
-    </row>
-    <row r="12" spans="1:21">
+        <v>19</v>
+      </c>
+      <c r="U11">
+        <v>4</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11" s="4"/>
+    </row>
+    <row r="12" spans="1:23">
       <c r="A12" t="s">
         <v>10</v>
       </c>
-      <c r="E12">
+      <c r="F12">
+        <v>46</v>
+      </c>
+      <c r="G12">
         <v>72</v>
       </c>
-      <c r="F12">
+      <c r="H12">
         <v>25</v>
       </c>
-      <c r="G12">
+      <c r="I12">
         <v>12</v>
       </c>
-      <c r="H12">
+      <c r="J12">
         <v>31</v>
       </c>
-      <c r="I12">
+      <c r="K12">
         <v>31</v>
       </c>
-      <c r="J12">
+      <c r="L12">
         <v>27</v>
       </c>
-      <c r="K12">
+      <c r="M12">
         <v>36</v>
       </c>
-      <c r="L12">
+      <c r="N12">
         <v>43</v>
       </c>
-      <c r="M12" s="3">
-        <v>1</v>
-      </c>
-      <c r="N12">
+      <c r="O12" s="3">
+        <v>1</v>
+      </c>
+      <c r="P12">
         <v>27</v>
       </c>
-      <c r="O12">
+      <c r="Q12">
         <v>8</v>
-      </c>
-      <c r="P12">
-        <v>15</v>
-      </c>
-      <c r="Q12">
-        <v>22</v>
       </c>
       <c r="R12">
         <v>15</v>
       </c>
       <c r="S12">
+        <v>22</v>
+      </c>
+      <c r="T12">
+        <v>15</v>
+      </c>
+      <c r="U12">
         <v>14</v>
       </c>
-      <c r="T12">
-        <v>0</v>
-      </c>
-      <c r="U12" s="4"/>
-    </row>
-    <row r="13" spans="1:21">
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12" s="4"/>
+    </row>
+    <row r="13" spans="1:23">
       <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="E13">
-        <v>7</v>
-      </c>
       <c r="F13">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="G13">
         <v>7</v>
       </c>
       <c r="H13">
+        <v>14</v>
+      </c>
+      <c r="I13">
+        <v>7</v>
+      </c>
+      <c r="J13">
         <v>8</v>
       </c>
-      <c r="I13">
-        <v>1</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
       <c r="K13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
-      <c r="M13" s="3">
-        <v>0</v>
+      <c r="M13">
+        <v>3</v>
       </c>
       <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13">
         <v>2</v>
       </c>
-      <c r="O13">
-        <v>1</v>
-      </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
       <c r="Q13">
+        <v>1</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
         <v>6</v>
       </c>
-      <c r="R13">
+      <c r="T13">
         <v>8</v>
       </c>
-      <c r="S13">
-        <v>1</v>
-      </c>
-      <c r="T13">
-        <v>0</v>
-      </c>
-      <c r="U13" s="4"/>
-    </row>
-    <row r="14" spans="1:21">
+      <c r="U13">
+        <v>1</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13" s="4"/>
+    </row>
+    <row r="14" spans="1:23">
       <c r="A14" t="s">
         <v>12</v>
       </c>
-      <c r="E14">
+      <c r="F14">
+        <v>28</v>
+      </c>
+      <c r="G14">
         <v>43</v>
       </c>
-      <c r="F14">
+      <c r="H14">
         <v>48</v>
       </c>
-      <c r="G14">
+      <c r="I14">
         <v>12</v>
       </c>
-      <c r="H14">
+      <c r="J14">
         <v>20</v>
       </c>
-      <c r="I14">
+      <c r="K14">
         <v>13</v>
       </c>
-      <c r="J14">
+      <c r="L14">
         <v>18</v>
       </c>
-      <c r="K14">
+      <c r="M14">
         <v>20</v>
       </c>
-      <c r="L14">
+      <c r="N14">
         <v>6</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14">
         <v>12</v>
       </c>
-      <c r="O14">
+      <c r="Q14">
         <v>6</v>
       </c>
-      <c r="P14">
+      <c r="R14">
         <v>2</v>
       </c>
-      <c r="Q14">
+      <c r="S14">
         <v>4</v>
       </c>
-      <c r="R14">
-        <v>1</v>
-      </c>
-      <c r="S14">
-        <v>1</v>
-      </c>
       <c r="T14">
-        <v>0</v>
-      </c>
-      <c r="U14" s="4"/>
-    </row>
-    <row r="15" spans="1:21">
+        <v>1</v>
+      </c>
+      <c r="U14">
+        <v>1</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14" s="4"/>
+    </row>
+    <row r="15" spans="1:23">
       <c r="A15" t="s">
         <v>13</v>
       </c>
-      <c r="E15">
+      <c r="F15">
+        <v>29</v>
+      </c>
+      <c r="G15">
         <v>26</v>
       </c>
-      <c r="F15">
+      <c r="H15">
         <v>16</v>
       </c>
-      <c r="G15">
+      <c r="I15">
         <v>7</v>
       </c>
-      <c r="H15">
+      <c r="J15">
         <v>10</v>
       </c>
-      <c r="I15">
+      <c r="K15">
         <v>5</v>
       </c>
-      <c r="J15">
+      <c r="L15">
         <v>7</v>
       </c>
-      <c r="K15">
+      <c r="M15">
         <v>12</v>
       </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15" s="3">
-        <v>1</v>
-      </c>
       <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
+        <v>1</v>
       </c>
       <c r="P15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R15">
         <v>3</v>
@@ -1319,283 +1361,304 @@
         <v>1</v>
       </c>
       <c r="T15">
-        <v>0</v>
-      </c>
-      <c r="U15" s="4"/>
-    </row>
-    <row r="16" spans="1:21">
+        <v>3</v>
+      </c>
+      <c r="U15">
+        <v>1</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15" s="4"/>
+    </row>
+    <row r="16" spans="1:23">
       <c r="A16" t="s">
         <v>14</v>
       </c>
-      <c r="E16">
+      <c r="F16">
+        <v>28</v>
+      </c>
+      <c r="G16">
         <v>32</v>
       </c>
-      <c r="F16">
+      <c r="H16">
         <v>24</v>
       </c>
-      <c r="G16">
+      <c r="I16">
         <v>40</v>
       </c>
-      <c r="H16">
+      <c r="J16">
         <v>17</v>
       </c>
-      <c r="I16">
+      <c r="K16">
         <v>20</v>
       </c>
-      <c r="J16">
+      <c r="L16">
         <v>26</v>
       </c>
-      <c r="K16">
+      <c r="M16">
         <v>7</v>
       </c>
-      <c r="L16">
+      <c r="N16">
         <v>15</v>
       </c>
-      <c r="M16" s="3">
-        <v>0</v>
-      </c>
-      <c r="N16">
+      <c r="O16" s="3">
+        <v>0</v>
+      </c>
+      <c r="P16">
         <v>2</v>
       </c>
-      <c r="O16">
+      <c r="Q16">
         <v>4</v>
       </c>
-      <c r="P16">
+      <c r="R16">
         <v>4</v>
       </c>
-      <c r="Q16">
+      <c r="S16">
         <v>5</v>
       </c>
-      <c r="R16">
-        <v>1</v>
-      </c>
-      <c r="S16">
-        <v>3</v>
-      </c>
       <c r="T16">
-        <v>0</v>
-      </c>
-      <c r="U16" s="4"/>
-    </row>
-    <row r="17" spans="1:21">
+        <v>1</v>
+      </c>
+      <c r="U16">
+        <v>3</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16" s="4"/>
+    </row>
+    <row r="17" spans="1:23">
       <c r="A17" t="s">
         <v>15</v>
       </c>
-      <c r="E17">
+      <c r="F17">
+        <v>10</v>
+      </c>
+      <c r="G17">
         <v>6</v>
-      </c>
-      <c r="F17">
-        <v>9</v>
-      </c>
-      <c r="G17">
-        <v>2</v>
       </c>
       <c r="H17">
         <v>9</v>
       </c>
       <c r="I17">
+        <v>2</v>
+      </c>
+      <c r="J17">
         <v>9</v>
       </c>
-      <c r="J17">
-        <v>1</v>
-      </c>
       <c r="K17">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
-      <c r="M17" s="3">
+      <c r="M17">
+        <v>3</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17" s="3">
         <v>4</v>
       </c>
-      <c r="N17">
-        <v>3</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
       <c r="P17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R17">
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T17">
         <v>0</v>
       </c>
-      <c r="U17" s="4"/>
-    </row>
-    <row r="18" spans="1:21">
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17" s="4"/>
+    </row>
+    <row r="18" spans="1:23">
       <c r="A18" t="s">
         <v>16</v>
       </c>
-      <c r="E18">
+      <c r="F18">
+        <v>11427</v>
+      </c>
+      <c r="G18">
         <v>10242</v>
       </c>
-      <c r="F18">
+      <c r="H18">
         <v>8976</v>
       </c>
-      <c r="G18">
+      <c r="I18">
         <v>8067</v>
       </c>
-      <c r="H18">
+      <c r="J18">
         <v>7312</v>
       </c>
-      <c r="I18">
+      <c r="K18">
         <v>6243</v>
       </c>
-      <c r="J18">
+      <c r="L18">
         <v>5168</v>
       </c>
-      <c r="K18">
+      <c r="M18">
         <v>3937</v>
       </c>
-      <c r="L18">
+      <c r="N18">
         <v>3184</v>
       </c>
-      <c r="M18">
+      <c r="O18">
         <v>2704</v>
       </c>
-      <c r="N18">
+      <c r="P18">
         <v>2122</v>
       </c>
-      <c r="O18">
+      <c r="Q18">
         <v>1770</v>
       </c>
-      <c r="P18">
+      <c r="R18">
         <v>1479</v>
       </c>
-      <c r="Q18">
+      <c r="S18">
         <v>1187</v>
       </c>
-      <c r="R18">
+      <c r="T18">
         <v>863</v>
       </c>
-      <c r="S18">
+      <c r="U18">
         <v>518</v>
       </c>
-      <c r="T18">
+      <c r="V18">
         <v>259</v>
       </c>
-      <c r="U18" s="4" t="s">
+      <c r="W18" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:23">
       <c r="A19" t="s">
         <v>17</v>
       </c>
-      <c r="E19">
+      <c r="F19">
+        <v>23427</v>
+      </c>
+      <c r="G19">
         <v>23119</v>
       </c>
-      <c r="F19">
+      <c r="H19">
         <v>22848</v>
       </c>
-      <c r="G19">
+      <c r="I19">
         <v>22499</v>
       </c>
-      <c r="H19">
+      <c r="J19">
         <v>21979</v>
       </c>
-      <c r="I19">
+      <c r="K19">
         <v>21473</v>
       </c>
-      <c r="J19">
+      <c r="L19">
         <v>20602</v>
       </c>
-      <c r="K19">
+      <c r="M19">
         <v>19791</v>
       </c>
-      <c r="L19">
+      <c r="N19">
         <v>18532</v>
       </c>
-      <c r="M19">
+      <c r="O19">
         <v>17656</v>
       </c>
-      <c r="N19">
+      <c r="P19">
         <v>16199</v>
       </c>
-      <c r="O19">
+      <c r="Q19">
         <v>14933</v>
       </c>
-      <c r="P19">
+      <c r="R19">
         <v>13345</v>
       </c>
-      <c r="Q19">
+      <c r="S19">
         <v>12270</v>
       </c>
-      <c r="R19">
+      <c r="T19">
         <v>11145</v>
       </c>
-      <c r="S19">
+      <c r="U19">
         <v>10071</v>
       </c>
-      <c r="T19">
+      <c r="V19">
         <v>8881</v>
       </c>
-      <c r="U19" s="4" t="s">
+      <c r="W19" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:23">
       <c r="A20" t="s">
         <v>18</v>
       </c>
-      <c r="E20">
+      <c r="F20">
+        <v>3704</v>
+      </c>
+      <c r="G20">
         <v>3297</v>
       </c>
-      <c r="F20">
+      <c r="H20">
         <v>2837</v>
       </c>
-      <c r="G20">
+      <c r="I20">
         <v>2466</v>
       </c>
-      <c r="H20">
+      <c r="J20">
         <v>2249</v>
       </c>
-      <c r="I20">
+      <c r="K20">
         <v>1884</v>
       </c>
-      <c r="J20">
+      <c r="L20">
         <v>1582</v>
       </c>
-      <c r="K20">
+      <c r="M20">
         <v>1218</v>
       </c>
-      <c r="L20">
+      <c r="N20">
         <v>991</v>
       </c>
-      <c r="M20">
+      <c r="O20">
         <v>815</v>
       </c>
-      <c r="N20">
+      <c r="P20">
         <v>654</v>
       </c>
-      <c r="O20">
+      <c r="Q20">
         <v>556</v>
       </c>
-      <c r="P20">
+      <c r="R20">
         <v>483</v>
       </c>
-      <c r="Q20">
+      <c r="S20">
         <v>397</v>
       </c>
-      <c r="R20">
+      <c r="T20">
         <v>282</v>
       </c>
-      <c r="S20">
+      <c r="U20">
         <v>171</v>
       </c>
-      <c r="T20">
+      <c r="V20">
         <v>95</v>
       </c>
-      <c r="U20" s="4" t="s">
+      <c r="W20" s="4" t="s">
         <v>20</v>
       </c>
     </row>

--- a/daily released.xlsx
+++ b/daily released.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liang/code/shanghai-2022Mar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A604A720-E3F0-3A4B-9A7C-46636B4C2623}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39CBDD47-A3D1-D042-9095-155332AB8B52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4480" yWindow="460" windowWidth="19840" windowHeight="13820" xr2:uid="{B61748C7-A350-CD4C-8140-E3EEE49B7E25}"/>
+    <workbookView xWindow="11060" yWindow="1140" windowWidth="19840" windowHeight="13820" xr2:uid="{B61748C7-A350-CD4C-8140-E3EEE49B7E25}"/>
   </bookViews>
   <sheets>
-    <sheet name="0417" sheetId="1" r:id="rId1"/>
+    <sheet name="0418" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -497,8 +497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4A5D483-70AF-4347-8031-2888AEA9692A}">
   <dimension ref="A1:W20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -577,6 +577,9 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
+      <c r="E2">
+        <v>78</v>
+      </c>
       <c r="F2">
         <v>74</v>
       </c>
@@ -633,6 +636,9 @@
     <row r="3" spans="1:23">
       <c r="A3" t="s">
         <v>1</v>
+      </c>
+      <c r="E3">
+        <v>62</v>
       </c>
       <c r="F3">
         <v>52</v>
@@ -691,6 +697,9 @@
       <c r="A4" t="s">
         <v>2</v>
       </c>
+      <c r="E4">
+        <v>6</v>
+      </c>
       <c r="F4">
         <v>42</v>
       </c>
@@ -747,6 +756,9 @@
     <row r="5" spans="1:23">
       <c r="A5" t="s">
         <v>3</v>
+      </c>
+      <c r="E5">
+        <v>69</v>
       </c>
       <c r="F5">
         <v>15</v>
@@ -805,6 +817,9 @@
       <c r="A6" t="s">
         <v>4</v>
       </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
       <c r="F6">
         <v>14</v>
       </c>
@@ -862,6 +877,9 @@
       <c r="A7" t="s">
         <v>5</v>
       </c>
+      <c r="E7">
+        <v>9</v>
+      </c>
       <c r="F7">
         <v>12</v>
       </c>
@@ -919,6 +937,9 @@
       <c r="A8" t="s">
         <v>6</v>
       </c>
+      <c r="E8">
+        <v>59</v>
+      </c>
       <c r="F8">
         <v>23</v>
       </c>
@@ -976,6 +997,9 @@
       <c r="A9" t="s">
         <v>7</v>
       </c>
+      <c r="E9">
+        <v>22</v>
+      </c>
       <c r="F9">
         <v>31</v>
       </c>
@@ -1033,6 +1057,9 @@
       <c r="A10" t="s">
         <v>8</v>
       </c>
+      <c r="E10">
+        <v>25</v>
+      </c>
       <c r="F10">
         <v>30</v>
       </c>
@@ -1090,6 +1117,9 @@
       <c r="A11" t="s">
         <v>9</v>
       </c>
+      <c r="E11">
+        <v>8</v>
+      </c>
       <c r="F11">
         <v>16</v>
       </c>
@@ -1147,6 +1177,9 @@
       <c r="A12" t="s">
         <v>10</v>
       </c>
+      <c r="E12">
+        <v>20</v>
+      </c>
       <c r="F12">
         <v>46</v>
       </c>
@@ -1204,6 +1237,9 @@
       <c r="A13" t="s">
         <v>11</v>
       </c>
+      <c r="E13">
+        <v>14</v>
+      </c>
       <c r="F13">
         <v>27</v>
       </c>
@@ -1261,6 +1297,9 @@
       <c r="A14" t="s">
         <v>12</v>
       </c>
+      <c r="E14">
+        <v>45</v>
+      </c>
       <c r="F14">
         <v>28</v>
       </c>
@@ -1318,6 +1357,9 @@
       <c r="A15" t="s">
         <v>13</v>
       </c>
+      <c r="E15">
+        <v>37</v>
+      </c>
       <c r="F15">
         <v>29</v>
       </c>
@@ -1375,6 +1417,9 @@
       <c r="A16" t="s">
         <v>14</v>
       </c>
+      <c r="E16">
+        <v>16</v>
+      </c>
       <c r="F16">
         <v>28</v>
       </c>
@@ -1432,6 +1477,9 @@
       <c r="A17" t="s">
         <v>15</v>
       </c>
+      <c r="E17">
+        <v>5</v>
+      </c>
       <c r="F17">
         <v>10</v>
       </c>
@@ -1489,6 +1537,9 @@
       <c r="A18" t="s">
         <v>16</v>
       </c>
+      <c r="E18">
+        <v>12667</v>
+      </c>
       <c r="F18">
         <v>11427</v>
       </c>
@@ -1548,6 +1599,9 @@
       <c r="A19" t="s">
         <v>17</v>
       </c>
+      <c r="E19">
+        <v>23700</v>
+      </c>
       <c r="F19">
         <v>23427</v>
       </c>
@@ -1606,6 +1660,9 @@
     <row r="20" spans="1:23">
       <c r="A20" t="s">
         <v>18</v>
+      </c>
+      <c r="E20">
+        <v>4105</v>
       </c>
       <c r="F20">
         <v>3704</v>

--- a/daily released.xlsx
+++ b/daily released.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liang/code/shanghai-2022Mar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39CBDD47-A3D1-D042-9095-155332AB8B52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E5CB329-8AD0-F740-9970-597755214DF5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11060" yWindow="1140" windowWidth="19840" windowHeight="13820" xr2:uid="{B61748C7-A350-CD4C-8140-E3EEE49B7E25}"/>
+    <workbookView xWindow="5760" yWindow="1140" windowWidth="19840" windowHeight="13820" xr2:uid="{B61748C7-A350-CD4C-8140-E3EEE49B7E25}"/>
   </bookViews>
   <sheets>
-    <sheet name="0418" sheetId="1" r:id="rId1"/>
+    <sheet name="0419" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -497,8 +497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4A5D483-70AF-4347-8031-2888AEA9692A}">
   <dimension ref="A1:W20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -577,6 +577,9 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
+      <c r="D2">
+        <v>71</v>
+      </c>
       <c r="E2">
         <v>78</v>
       </c>
@@ -636,6 +639,9 @@
     <row r="3" spans="1:23">
       <c r="A3" t="s">
         <v>1</v>
+      </c>
+      <c r="D3">
+        <v>43</v>
       </c>
       <c r="E3">
         <v>62</v>
@@ -697,6 +703,9 @@
       <c r="A4" t="s">
         <v>2</v>
       </c>
+      <c r="D4">
+        <v>41</v>
+      </c>
       <c r="E4">
         <v>6</v>
       </c>
@@ -756,6 +765,9 @@
     <row r="5" spans="1:23">
       <c r="A5" t="s">
         <v>3</v>
+      </c>
+      <c r="D5">
+        <v>46</v>
       </c>
       <c r="E5">
         <v>69</v>
@@ -817,6 +829,9 @@
       <c r="A6" t="s">
         <v>4</v>
       </c>
+      <c r="D6">
+        <v>6</v>
+      </c>
       <c r="E6">
         <v>4</v>
       </c>
@@ -877,6 +892,9 @@
       <c r="A7" t="s">
         <v>5</v>
       </c>
+      <c r="D7">
+        <v>18</v>
+      </c>
       <c r="E7">
         <v>9</v>
       </c>
@@ -937,6 +955,9 @@
       <c r="A8" t="s">
         <v>6</v>
       </c>
+      <c r="D8">
+        <v>38</v>
+      </c>
       <c r="E8">
         <v>59</v>
       </c>
@@ -997,6 +1018,9 @@
       <c r="A9" t="s">
         <v>7</v>
       </c>
+      <c r="D9">
+        <v>43</v>
+      </c>
       <c r="E9">
         <v>22</v>
       </c>
@@ -1057,6 +1081,9 @@
       <c r="A10" t="s">
         <v>8</v>
       </c>
+      <c r="D10">
+        <v>45</v>
+      </c>
       <c r="E10">
         <v>25</v>
       </c>
@@ -1117,6 +1144,9 @@
       <c r="A11" t="s">
         <v>9</v>
       </c>
+      <c r="D11">
+        <v>14</v>
+      </c>
       <c r="E11">
         <v>8</v>
       </c>
@@ -1177,6 +1207,9 @@
       <c r="A12" t="s">
         <v>10</v>
       </c>
+      <c r="D12">
+        <v>24</v>
+      </c>
       <c r="E12">
         <v>20</v>
       </c>
@@ -1237,6 +1270,9 @@
       <c r="A13" t="s">
         <v>11</v>
       </c>
+      <c r="D13">
+        <v>15</v>
+      </c>
       <c r="E13">
         <v>14</v>
       </c>
@@ -1297,6 +1333,9 @@
       <c r="A14" t="s">
         <v>12</v>
       </c>
+      <c r="D14">
+        <v>62</v>
+      </c>
       <c r="E14">
         <v>45</v>
       </c>
@@ -1357,6 +1396,9 @@
       <c r="A15" t="s">
         <v>13</v>
       </c>
+      <c r="D15">
+        <v>56</v>
+      </c>
       <c r="E15">
         <v>37</v>
       </c>
@@ -1417,6 +1459,9 @@
       <c r="A16" t="s">
         <v>14</v>
       </c>
+      <c r="D16">
+        <v>26</v>
+      </c>
       <c r="E16">
         <v>16</v>
       </c>
@@ -1477,6 +1522,9 @@
       <c r="A17" t="s">
         <v>15</v>
       </c>
+      <c r="D17">
+        <v>5</v>
+      </c>
       <c r="E17">
         <v>5</v>
       </c>
@@ -1537,6 +1585,9 @@
       <c r="A18" t="s">
         <v>16</v>
       </c>
+      <c r="D18">
+        <v>13828</v>
+      </c>
       <c r="E18">
         <v>12667</v>
       </c>
@@ -1599,6 +1650,9 @@
       <c r="A19" t="s">
         <v>17</v>
       </c>
+      <c r="D19">
+        <v>23889</v>
+      </c>
       <c r="E19">
         <v>23700</v>
       </c>
@@ -1660,6 +1714,9 @@
     <row r="20" spans="1:23">
       <c r="A20" t="s">
         <v>18</v>
+      </c>
+      <c r="D20">
+        <v>4593</v>
       </c>
       <c r="E20">
         <v>4105</v>

--- a/daily released.xlsx
+++ b/daily released.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liang/code/shanghai-2022Mar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E5CB329-8AD0-F740-9970-597755214DF5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78AC3A14-5D54-B641-BC73-7BA9317ACFEC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="1140" windowWidth="19840" windowHeight="13820" xr2:uid="{B61748C7-A350-CD4C-8140-E3EEE49B7E25}"/>
+    <workbookView xWindow="7720" yWindow="1480" windowWidth="19840" windowHeight="13820" xr2:uid="{B61748C7-A350-CD4C-8140-E3EEE49B7E25}"/>
   </bookViews>
   <sheets>
-    <sheet name="0419" sheetId="1" r:id="rId1"/>
+    <sheet name="0420" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -495,1083 +495,1131 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4A5D483-70AF-4347-8031-2888AEA9692A}">
-  <dimension ref="A1:W20"/>
+  <dimension ref="A1:AA20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="11.83203125" customWidth="1"/>
-    <col min="2" max="23" width="6.1640625" customWidth="1"/>
-    <col min="24" max="24" width="71.1640625" customWidth="1"/>
+    <col min="2" max="27" width="6.1640625" customWidth="1"/>
+    <col min="28" max="28" width="71.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="1" customFormat="1" ht="22" customHeight="1">
+    <row r="1" spans="1:27" s="1" customFormat="1" ht="22" customHeight="1">
       <c r="C1" s="2">
+        <v>44675</v>
+      </c>
+      <c r="D1" s="2">
+        <v>44674</v>
+      </c>
+      <c r="E1" s="2">
+        <v>44673</v>
+      </c>
+      <c r="F1" s="2">
+        <v>44672</v>
+      </c>
+      <c r="G1" s="2">
         <v>44671</v>
       </c>
-      <c r="D1" s="2">
+      <c r="H1" s="2">
         <v>44670</v>
       </c>
-      <c r="E1" s="2">
+      <c r="I1" s="2">
         <v>44669</v>
       </c>
-      <c r="F1" s="2">
+      <c r="J1" s="2">
         <v>44668</v>
       </c>
-      <c r="G1" s="2">
+      <c r="K1" s="2">
         <v>44667</v>
       </c>
-      <c r="H1" s="2">
+      <c r="L1" s="2">
         <v>44666</v>
       </c>
-      <c r="I1" s="2">
+      <c r="M1" s="2">
         <v>44665</v>
       </c>
-      <c r="J1" s="2">
+      <c r="N1" s="2">
         <v>44664</v>
       </c>
-      <c r="K1" s="2">
+      <c r="O1" s="2">
         <v>44663</v>
       </c>
-      <c r="L1" s="2">
+      <c r="P1" s="2">
         <v>44662</v>
       </c>
-      <c r="M1" s="2">
+      <c r="Q1" s="2">
         <v>44661</v>
       </c>
-      <c r="N1" s="2">
+      <c r="R1" s="2">
         <v>44660</v>
       </c>
-      <c r="O1" s="2">
+      <c r="S1" s="2">
         <v>44659</v>
       </c>
-      <c r="P1" s="2">
+      <c r="T1" s="2">
         <v>44658</v>
       </c>
-      <c r="Q1" s="2">
+      <c r="U1" s="2">
         <v>44657</v>
       </c>
-      <c r="R1" s="2">
+      <c r="V1" s="2">
         <v>44656</v>
       </c>
-      <c r="S1" s="2">
+      <c r="W1" s="2">
         <v>44655</v>
       </c>
-      <c r="T1" s="2">
+      <c r="X1" s="2">
         <v>44654</v>
       </c>
-      <c r="U1" s="2">
+      <c r="Y1" s="2">
         <v>44653</v>
       </c>
-      <c r="V1" s="2">
+      <c r="Z1" s="2">
         <v>44652</v>
       </c>
-      <c r="W1" s="5">
+      <c r="AA1" s="5">
         <v>44651</v>
       </c>
     </row>
-    <row r="2" spans="1:23">
+    <row r="2" spans="1:27">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="D2">
+      <c r="G2">
+        <v>133</v>
+      </c>
+      <c r="H2">
         <v>71</v>
       </c>
-      <c r="E2">
+      <c r="I2">
         <v>78</v>
       </c>
-      <c r="F2">
+      <c r="J2">
         <v>74</v>
       </c>
-      <c r="G2">
+      <c r="K2">
         <v>46</v>
       </c>
-      <c r="H2">
+      <c r="L2">
         <v>119</v>
       </c>
-      <c r="I2">
+      <c r="M2">
         <v>96</v>
       </c>
-      <c r="J2">
+      <c r="N2">
         <v>140</v>
       </c>
-      <c r="K2">
+      <c r="O2">
         <v>115</v>
       </c>
-      <c r="L2">
+      <c r="P2">
         <v>222</v>
       </c>
-      <c r="M2">
+      <c r="Q2">
         <v>108</v>
       </c>
-      <c r="N2">
+      <c r="R2">
         <v>34</v>
       </c>
-      <c r="O2" s="3">
+      <c r="S2" s="3">
         <v>177</v>
       </c>
-      <c r="P2">
+      <c r="T2">
         <v>7</v>
       </c>
-      <c r="Q2">
+      <c r="U2">
         <v>40</v>
       </c>
-      <c r="R2">
+      <c r="V2">
         <v>37</v>
       </c>
-      <c r="S2">
+      <c r="W2">
         <v>30</v>
       </c>
-      <c r="T2">
+      <c r="X2">
         <v>37</v>
       </c>
-      <c r="U2">
+      <c r="Y2">
         <v>25</v>
       </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-      <c r="W2" s="4"/>
-    </row>
-    <row r="3" spans="1:23">
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="4"/>
+    </row>
+    <row r="3" spans="1:27">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="D3">
+      <c r="G3">
+        <v>71</v>
+      </c>
+      <c r="H3">
         <v>43</v>
       </c>
-      <c r="E3">
+      <c r="I3">
         <v>62</v>
       </c>
-      <c r="F3">
+      <c r="J3">
         <v>52</v>
       </c>
-      <c r="G3">
+      <c r="K3">
         <v>46</v>
       </c>
-      <c r="H3">
+      <c r="L3">
         <v>29</v>
       </c>
-      <c r="I3">
+      <c r="M3">
         <v>11</v>
       </c>
-      <c r="J3">
+      <c r="N3">
         <v>46</v>
       </c>
-      <c r="K3">
+      <c r="O3">
         <v>14</v>
       </c>
-      <c r="L3">
+      <c r="P3">
         <v>43</v>
       </c>
-      <c r="M3">
+      <c r="Q3">
         <v>10</v>
       </c>
-      <c r="N3">
+      <c r="R3">
         <v>20</v>
       </c>
-      <c r="O3" s="3">
-        <v>3</v>
-      </c>
-      <c r="P3">
+      <c r="S3" s="3">
+        <v>3</v>
+      </c>
+      <c r="T3">
         <v>18</v>
       </c>
-      <c r="Q3">
+      <c r="U3">
         <v>4</v>
       </c>
-      <c r="R3">
+      <c r="V3">
         <v>14</v>
       </c>
-      <c r="S3">
+      <c r="W3">
         <v>13</v>
       </c>
-      <c r="T3">
+      <c r="X3">
         <v>9</v>
       </c>
-      <c r="U3">
+      <c r="Y3">
         <v>5</v>
       </c>
-      <c r="V3">
-        <v>0</v>
-      </c>
-      <c r="W3" s="4"/>
-    </row>
-    <row r="4" spans="1:23">
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="4"/>
+    </row>
+    <row r="4" spans="1:27">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="D4">
+      <c r="G4">
+        <v>55</v>
+      </c>
+      <c r="H4">
         <v>41</v>
       </c>
-      <c r="E4">
+      <c r="I4">
         <v>6</v>
       </c>
-      <c r="F4">
+      <c r="J4">
         <v>42</v>
       </c>
-      <c r="G4">
+      <c r="K4">
         <v>50</v>
       </c>
-      <c r="H4">
+      <c r="L4">
         <v>32</v>
       </c>
-      <c r="I4">
+      <c r="M4">
         <v>18</v>
       </c>
-      <c r="J4">
+      <c r="N4">
         <v>11</v>
       </c>
-      <c r="K4">
+      <c r="O4">
         <v>23</v>
       </c>
-      <c r="L4">
+      <c r="P4">
         <v>15</v>
       </c>
-      <c r="M4">
+      <c r="Q4">
         <v>9</v>
       </c>
-      <c r="N4">
+      <c r="R4">
         <v>9</v>
       </c>
-      <c r="O4" s="3">
-        <v>1</v>
-      </c>
-      <c r="P4">
+      <c r="S4" s="3">
+        <v>1</v>
+      </c>
+      <c r="T4">
         <v>8</v>
       </c>
-      <c r="Q4">
+      <c r="U4">
         <v>7</v>
       </c>
-      <c r="R4">
+      <c r="V4">
         <v>7</v>
       </c>
-      <c r="S4">
+      <c r="W4">
         <v>6</v>
       </c>
-      <c r="T4">
+      <c r="X4">
         <v>7</v>
       </c>
-      <c r="U4">
-        <v>3</v>
-      </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
-      <c r="W4" s="4"/>
-    </row>
-    <row r="5" spans="1:23">
+      <c r="Y4">
+        <v>3</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="4"/>
+    </row>
+    <row r="5" spans="1:27">
       <c r="A5" t="s">
         <v>3</v>
-      </c>
-      <c r="D5">
-        <v>46</v>
-      </c>
-      <c r="E5">
-        <v>69</v>
-      </c>
-      <c r="F5">
-        <v>15</v>
       </c>
       <c r="G5">
         <v>47</v>
       </c>
       <c r="H5">
+        <v>46</v>
+      </c>
+      <c r="I5">
+        <v>69</v>
+      </c>
+      <c r="J5">
+        <v>15</v>
+      </c>
+      <c r="K5">
+        <v>47</v>
+      </c>
+      <c r="L5">
         <v>35</v>
       </c>
-      <c r="I5">
-        <v>3</v>
-      </c>
-      <c r="J5">
-        <v>16</v>
-      </c>
-      <c r="K5">
-        <v>45</v>
-      </c>
-      <c r="L5">
-        <v>4</v>
-      </c>
       <c r="M5">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="N5">
         <v>16</v>
       </c>
-      <c r="O5" s="3">
-        <v>1</v>
+      <c r="O5">
+        <v>45</v>
       </c>
       <c r="P5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q5">
+        <v>14</v>
+      </c>
+      <c r="R5">
+        <v>16</v>
+      </c>
+      <c r="S5" s="3">
+        <v>1</v>
+      </c>
+      <c r="T5">
+        <v>3</v>
+      </c>
+      <c r="U5">
         <v>7</v>
       </c>
-      <c r="R5">
+      <c r="V5">
         <v>2</v>
       </c>
-      <c r="S5">
+      <c r="W5">
         <v>10</v>
       </c>
-      <c r="T5">
-        <v>3</v>
-      </c>
-      <c r="U5">
+      <c r="X5">
+        <v>3</v>
+      </c>
+      <c r="Y5">
         <v>14</v>
       </c>
-      <c r="V5">
-        <v>0</v>
-      </c>
-      <c r="W5" s="4"/>
-    </row>
-    <row r="6" spans="1:23">
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="4"/>
+    </row>
+    <row r="6" spans="1:27">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="D6">
+      <c r="G6">
+        <v>35</v>
+      </c>
+      <c r="H6">
         <v>6</v>
       </c>
-      <c r="E6">
+      <c r="I6">
         <v>4</v>
       </c>
-      <c r="F6">
+      <c r="J6">
         <v>14</v>
       </c>
-      <c r="G6">
+      <c r="K6">
         <v>8</v>
       </c>
-      <c r="H6">
-        <v>3</v>
-      </c>
-      <c r="I6">
+      <c r="L6">
+        <v>3</v>
+      </c>
+      <c r="M6">
         <v>26</v>
       </c>
-      <c r="J6">
+      <c r="N6">
         <v>10</v>
       </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>12</v>
-      </c>
-      <c r="M6">
-        <v>4</v>
-      </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
-      <c r="O6" s="3">
+      <c r="O6">
         <v>1</v>
       </c>
       <c r="P6">
         <v>12</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R6">
+        <v>1</v>
+      </c>
+      <c r="S6" s="3">
+        <v>1</v>
+      </c>
+      <c r="T6">
+        <v>12</v>
+      </c>
+      <c r="U6">
+        <v>1</v>
+      </c>
+      <c r="V6">
         <v>4</v>
       </c>
-      <c r="S6">
+      <c r="W6">
         <v>7</v>
       </c>
-      <c r="T6">
-        <v>3</v>
-      </c>
-      <c r="U6">
+      <c r="X6">
+        <v>3</v>
+      </c>
+      <c r="Y6">
         <v>2</v>
       </c>
-      <c r="V6">
-        <v>0</v>
-      </c>
-      <c r="W6" s="4"/>
-    </row>
-    <row r="7" spans="1:23">
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="4"/>
+    </row>
+    <row r="7" spans="1:27">
       <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="D7">
+      <c r="G7">
+        <v>38</v>
+      </c>
+      <c r="H7">
         <v>18</v>
       </c>
-      <c r="E7">
+      <c r="I7">
         <v>9</v>
       </c>
-      <c r="F7">
+      <c r="J7">
         <v>12</v>
       </c>
-      <c r="G7">
+      <c r="K7">
         <v>24</v>
       </c>
-      <c r="H7">
+      <c r="L7">
         <v>22</v>
       </c>
-      <c r="I7">
+      <c r="M7">
         <v>2</v>
       </c>
-      <c r="J7">
+      <c r="N7">
         <v>10</v>
       </c>
-      <c r="K7">
+      <c r="O7">
         <v>9</v>
       </c>
-      <c r="L7">
+      <c r="P7">
         <v>7</v>
       </c>
-      <c r="M7">
+      <c r="Q7">
         <v>11</v>
       </c>
-      <c r="N7">
+      <c r="R7">
         <v>8</v>
       </c>
-      <c r="O7" s="3">
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <v>1</v>
-      </c>
-      <c r="Q7">
+      <c r="S7" s="3">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>1</v>
+      </c>
+      <c r="U7">
         <v>4</v>
       </c>
-      <c r="R7">
-        <v>3</v>
-      </c>
-      <c r="S7">
-        <v>3</v>
-      </c>
-      <c r="T7">
+      <c r="V7">
+        <v>3</v>
+      </c>
+      <c r="W7">
+        <v>3</v>
+      </c>
+      <c r="X7">
         <v>4</v>
       </c>
-      <c r="U7">
+      <c r="Y7">
         <v>5</v>
       </c>
-      <c r="V7">
-        <v>0</v>
-      </c>
-      <c r="W7" s="4"/>
-    </row>
-    <row r="8" spans="1:23">
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="4"/>
+    </row>
+    <row r="8" spans="1:27">
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="D8">
+      <c r="G8">
+        <v>54</v>
+      </c>
+      <c r="H8">
         <v>38</v>
       </c>
-      <c r="E8">
+      <c r="I8">
         <v>59</v>
       </c>
-      <c r="F8">
+      <c r="J8">
         <v>23</v>
       </c>
-      <c r="G8">
+      <c r="K8">
         <v>49</v>
       </c>
-      <c r="H8">
+      <c r="L8">
         <v>6</v>
       </c>
-      <c r="I8">
+      <c r="M8">
         <v>22</v>
       </c>
-      <c r="J8">
+      <c r="N8">
         <v>20</v>
       </c>
-      <c r="K8">
+      <c r="O8">
         <v>15</v>
       </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>1</v>
-      </c>
-      <c r="N8">
+      <c r="P8">
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <v>1</v>
+      </c>
+      <c r="R8">
         <v>9</v>
       </c>
-      <c r="O8" s="3">
-        <v>0</v>
-      </c>
-      <c r="P8">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+      <c r="T8">
         <v>5</v>
       </c>
-      <c r="Q8">
-        <v>1</v>
-      </c>
-      <c r="R8">
+      <c r="U8">
+        <v>1</v>
+      </c>
+      <c r="V8">
         <v>2</v>
       </c>
-      <c r="S8">
+      <c r="W8">
         <v>2</v>
       </c>
-      <c r="T8">
-        <v>1</v>
-      </c>
-      <c r="U8">
+      <c r="X8">
+        <v>1</v>
+      </c>
+      <c r="Y8">
         <v>2</v>
       </c>
-      <c r="V8">
-        <v>0</v>
-      </c>
-      <c r="W8" s="4"/>
-    </row>
-    <row r="9" spans="1:23">
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="4"/>
+    </row>
+    <row r="9" spans="1:27">
       <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="D9">
+      <c r="G9">
+        <v>40</v>
+      </c>
+      <c r="H9">
         <v>43</v>
       </c>
-      <c r="E9">
+      <c r="I9">
         <v>22</v>
       </c>
-      <c r="F9">
+      <c r="J9">
         <v>31</v>
       </c>
-      <c r="G9">
+      <c r="K9">
         <v>17</v>
       </c>
-      <c r="H9">
+      <c r="L9">
         <v>13</v>
       </c>
-      <c r="I9">
+      <c r="M9">
         <v>8</v>
       </c>
-      <c r="J9">
+      <c r="N9">
         <v>7</v>
       </c>
-      <c r="K9">
+      <c r="O9">
         <v>9</v>
       </c>
-      <c r="L9">
-        <v>3</v>
-      </c>
-      <c r="M9">
+      <c r="P9">
+        <v>3</v>
+      </c>
+      <c r="Q9">
         <v>4</v>
       </c>
-      <c r="N9">
-        <v>3</v>
-      </c>
-      <c r="O9" s="3">
+      <c r="R9">
+        <v>3</v>
+      </c>
+      <c r="S9" s="3">
         <v>5</v>
       </c>
-      <c r="P9">
+      <c r="T9">
         <v>4</v>
       </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-      <c r="R9">
-        <v>1</v>
-      </c>
-      <c r="S9">
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>1</v>
+      </c>
+      <c r="W9">
         <v>5</v>
       </c>
-      <c r="T9">
-        <v>3</v>
-      </c>
-      <c r="U9">
+      <c r="X9">
+        <v>3</v>
+      </c>
+      <c r="Y9">
         <v>2</v>
       </c>
-      <c r="V9">
-        <v>0</v>
-      </c>
-      <c r="W9" s="4"/>
-    </row>
-    <row r="10" spans="1:23">
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="4"/>
+    </row>
+    <row r="10" spans="1:27">
       <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="D10">
+      <c r="G10">
+        <v>47</v>
+      </c>
+      <c r="H10">
         <v>45</v>
       </c>
-      <c r="E10">
+      <c r="I10">
         <v>25</v>
       </c>
-      <c r="F10">
+      <c r="J10">
         <v>30</v>
       </c>
-      <c r="G10">
+      <c r="K10">
         <v>29</v>
       </c>
-      <c r="H10">
+      <c r="L10">
         <v>8</v>
       </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-      <c r="J10">
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
         <v>32</v>
       </c>
-      <c r="K10">
+      <c r="O10">
         <v>23</v>
       </c>
-      <c r="L10">
+      <c r="P10">
         <v>16</v>
-      </c>
-      <c r="M10">
-        <v>6</v>
-      </c>
-      <c r="N10">
-        <v>18</v>
-      </c>
-      <c r="O10" s="3">
-        <v>0</v>
-      </c>
-      <c r="P10">
-        <v>11</v>
       </c>
       <c r="Q10">
         <v>6</v>
       </c>
       <c r="R10">
-        <v>0</v>
-      </c>
-      <c r="S10">
+        <v>18</v>
+      </c>
+      <c r="S10" s="3">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>11</v>
+      </c>
+      <c r="U10">
+        <v>6</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
         <v>15</v>
       </c>
-      <c r="T10">
+      <c r="X10">
         <v>5</v>
       </c>
-      <c r="U10">
-        <v>3</v>
-      </c>
-      <c r="V10">
-        <v>0</v>
-      </c>
-      <c r="W10" s="4"/>
-    </row>
-    <row r="11" spans="1:23">
+      <c r="Y10">
+        <v>3</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="4"/>
+    </row>
+    <row r="11" spans="1:27">
       <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="D11">
+      <c r="G11">
+        <v>22</v>
+      </c>
+      <c r="H11">
         <v>14</v>
       </c>
-      <c r="E11">
+      <c r="I11">
         <v>8</v>
-      </c>
-      <c r="F11">
-        <v>16</v>
-      </c>
-      <c r="G11">
-        <v>7</v>
-      </c>
-      <c r="H11">
-        <v>3</v>
-      </c>
-      <c r="I11">
-        <v>3</v>
       </c>
       <c r="J11">
         <v>16</v>
       </c>
       <c r="K11">
+        <v>7</v>
+      </c>
+      <c r="L11">
+        <v>3</v>
+      </c>
+      <c r="M11">
+        <v>3</v>
+      </c>
+      <c r="N11">
+        <v>16</v>
+      </c>
+      <c r="O11">
         <v>10</v>
       </c>
-      <c r="L11">
+      <c r="P11">
         <v>4</v>
       </c>
-      <c r="M11">
+      <c r="Q11">
         <v>15</v>
       </c>
-      <c r="N11">
+      <c r="R11">
         <v>25</v>
       </c>
-      <c r="O11" s="3">
+      <c r="S11" s="3">
         <v>5</v>
       </c>
-      <c r="P11">
+      <c r="T11">
         <v>11</v>
       </c>
-      <c r="Q11">
+      <c r="U11">
         <v>10</v>
       </c>
-      <c r="R11">
+      <c r="V11">
         <v>9</v>
       </c>
-      <c r="S11">
+      <c r="W11">
         <v>4</v>
       </c>
-      <c r="T11">
+      <c r="X11">
         <v>19</v>
       </c>
-      <c r="U11">
+      <c r="Y11">
         <v>4</v>
       </c>
-      <c r="V11">
-        <v>0</v>
-      </c>
-      <c r="W11" s="4"/>
-    </row>
-    <row r="12" spans="1:23">
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="4"/>
+    </row>
+    <row r="12" spans="1:27">
       <c r="A12" t="s">
         <v>10</v>
       </c>
-      <c r="D12">
+      <c r="G12">
+        <v>132</v>
+      </c>
+      <c r="H12">
         <v>24</v>
       </c>
-      <c r="E12">
+      <c r="I12">
         <v>20</v>
       </c>
-      <c r="F12">
+      <c r="J12">
         <v>46</v>
       </c>
-      <c r="G12">
+      <c r="K12">
         <v>72</v>
       </c>
-      <c r="H12">
+      <c r="L12">
         <v>25</v>
       </c>
-      <c r="I12">
+      <c r="M12">
         <v>12</v>
       </c>
-      <c r="J12">
+      <c r="N12">
         <v>31</v>
       </c>
-      <c r="K12">
+      <c r="O12">
         <v>31</v>
-      </c>
-      <c r="L12">
-        <v>27</v>
-      </c>
-      <c r="M12">
-        <v>36</v>
-      </c>
-      <c r="N12">
-        <v>43</v>
-      </c>
-      <c r="O12" s="3">
-        <v>1</v>
       </c>
       <c r="P12">
         <v>27</v>
       </c>
       <c r="Q12">
+        <v>36</v>
+      </c>
+      <c r="R12">
+        <v>43</v>
+      </c>
+      <c r="S12" s="3">
+        <v>1</v>
+      </c>
+      <c r="T12">
+        <v>27</v>
+      </c>
+      <c r="U12">
         <v>8</v>
       </c>
-      <c r="R12">
+      <c r="V12">
         <v>15</v>
       </c>
-      <c r="S12">
+      <c r="W12">
         <v>22</v>
       </c>
-      <c r="T12">
+      <c r="X12">
         <v>15</v>
       </c>
-      <c r="U12">
+      <c r="Y12">
         <v>14</v>
       </c>
-      <c r="V12">
-        <v>0</v>
-      </c>
-      <c r="W12" s="4"/>
-    </row>
-    <row r="13" spans="1:23">
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="4"/>
+    </row>
+    <row r="13" spans="1:27">
       <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="D13">
+      <c r="G13">
+        <v>17</v>
+      </c>
+      <c r="H13">
         <v>15</v>
       </c>
-      <c r="E13">
+      <c r="I13">
         <v>14</v>
       </c>
-      <c r="F13">
+      <c r="J13">
         <v>27</v>
       </c>
-      <c r="G13">
+      <c r="K13">
         <v>7</v>
       </c>
-      <c r="H13">
+      <c r="L13">
         <v>14</v>
       </c>
-      <c r="I13">
+      <c r="M13">
         <v>7</v>
       </c>
-      <c r="J13">
+      <c r="N13">
         <v>8</v>
       </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>3</v>
-      </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="O13" s="3">
-        <v>0</v>
+      <c r="O13">
+        <v>1</v>
       </c>
       <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>3</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+      <c r="T13">
         <v>2</v>
       </c>
-      <c r="Q13">
-        <v>1</v>
-      </c>
-      <c r="R13">
-        <v>0</v>
-      </c>
-      <c r="S13">
+      <c r="U13">
+        <v>1</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
         <v>6</v>
       </c>
-      <c r="T13">
+      <c r="X13">
         <v>8</v>
       </c>
-      <c r="U13">
-        <v>1</v>
-      </c>
-      <c r="V13">
-        <v>0</v>
-      </c>
-      <c r="W13" s="4"/>
-    </row>
-    <row r="14" spans="1:23">
+      <c r="Y13">
+        <v>1</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="4"/>
+    </row>
+    <row r="14" spans="1:27">
       <c r="A14" t="s">
         <v>12</v>
       </c>
-      <c r="D14">
-        <v>62</v>
-      </c>
-      <c r="E14">
-        <v>45</v>
-      </c>
-      <c r="F14">
-        <v>28</v>
-      </c>
       <c r="G14">
         <v>43</v>
       </c>
       <c r="H14">
+        <v>62</v>
+      </c>
+      <c r="I14">
+        <v>45</v>
+      </c>
+      <c r="J14">
+        <v>28</v>
+      </c>
+      <c r="K14">
+        <v>43</v>
+      </c>
+      <c r="L14">
         <v>48</v>
       </c>
-      <c r="I14">
+      <c r="M14">
         <v>12</v>
       </c>
-      <c r="J14">
+      <c r="N14">
         <v>20</v>
       </c>
-      <c r="K14">
+      <c r="O14">
         <v>13</v>
       </c>
-      <c r="L14">
+      <c r="P14">
         <v>18</v>
       </c>
-      <c r="M14">
+      <c r="Q14">
         <v>20</v>
       </c>
-      <c r="N14">
+      <c r="R14">
         <v>6</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14">
         <v>12</v>
       </c>
-      <c r="Q14">
+      <c r="U14">
         <v>6</v>
       </c>
-      <c r="R14">
+      <c r="V14">
         <v>2</v>
       </c>
-      <c r="S14">
+      <c r="W14">
         <v>4</v>
       </c>
-      <c r="T14">
-        <v>1</v>
-      </c>
-      <c r="U14">
-        <v>1</v>
-      </c>
-      <c r="V14">
-        <v>0</v>
-      </c>
-      <c r="W14" s="4"/>
-    </row>
-    <row r="15" spans="1:23">
+      <c r="X14">
+        <v>1</v>
+      </c>
+      <c r="Y14">
+        <v>1</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="4"/>
+    </row>
+    <row r="15" spans="1:27">
       <c r="A15" t="s">
         <v>13</v>
       </c>
-      <c r="D15">
+      <c r="G15">
+        <v>63</v>
+      </c>
+      <c r="H15">
         <v>56</v>
       </c>
-      <c r="E15">
+      <c r="I15">
         <v>37</v>
       </c>
-      <c r="F15">
+      <c r="J15">
         <v>29</v>
       </c>
-      <c r="G15">
+      <c r="K15">
         <v>26</v>
       </c>
-      <c r="H15">
+      <c r="L15">
         <v>16</v>
       </c>
-      <c r="I15">
+      <c r="M15">
         <v>7</v>
       </c>
-      <c r="J15">
+      <c r="N15">
         <v>10</v>
       </c>
-      <c r="K15">
+      <c r="O15">
         <v>5</v>
       </c>
-      <c r="L15">
+      <c r="P15">
         <v>7</v>
       </c>
-      <c r="M15">
+      <c r="Q15">
         <v>12</v>
       </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
-      <c r="O15" s="3">
-        <v>1</v>
-      </c>
-      <c r="P15">
-        <v>1</v>
-      </c>
-      <c r="Q15">
-        <v>3</v>
-      </c>
       <c r="R15">
-        <v>3</v>
-      </c>
-      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
         <v>1</v>
       </c>
       <c r="T15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V15">
-        <v>0</v>
-      </c>
-      <c r="W15" s="4"/>
-    </row>
-    <row r="16" spans="1:23">
+        <v>3</v>
+      </c>
+      <c r="W15">
+        <v>1</v>
+      </c>
+      <c r="X15">
+        <v>3</v>
+      </c>
+      <c r="Y15">
+        <v>1</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="4"/>
+    </row>
+    <row r="16" spans="1:27">
       <c r="A16" t="s">
         <v>14</v>
       </c>
-      <c r="D16">
+      <c r="G16">
+        <v>33</v>
+      </c>
+      <c r="H16">
         <v>26</v>
       </c>
-      <c r="E16">
+      <c r="I16">
         <v>16</v>
       </c>
-      <c r="F16">
+      <c r="J16">
         <v>28</v>
       </c>
-      <c r="G16">
+      <c r="K16">
         <v>32</v>
       </c>
-      <c r="H16">
+      <c r="L16">
         <v>24</v>
       </c>
-      <c r="I16">
+      <c r="M16">
         <v>40</v>
       </c>
-      <c r="J16">
+      <c r="N16">
         <v>17</v>
       </c>
-      <c r="K16">
+      <c r="O16">
         <v>20</v>
       </c>
-      <c r="L16">
+      <c r="P16">
         <v>26</v>
       </c>
-      <c r="M16">
+      <c r="Q16">
         <v>7</v>
       </c>
-      <c r="N16">
+      <c r="R16">
         <v>15</v>
       </c>
-      <c r="O16" s="3">
-        <v>0</v>
-      </c>
-      <c r="P16">
+      <c r="S16" s="3">
+        <v>0</v>
+      </c>
+      <c r="T16">
         <v>2</v>
       </c>
-      <c r="Q16">
+      <c r="U16">
         <v>4</v>
       </c>
-      <c r="R16">
+      <c r="V16">
         <v>4</v>
       </c>
-      <c r="S16">
+      <c r="W16">
         <v>5</v>
       </c>
-      <c r="T16">
-        <v>1</v>
-      </c>
-      <c r="U16">
-        <v>3</v>
-      </c>
-      <c r="V16">
-        <v>0</v>
-      </c>
-      <c r="W16" s="4"/>
-    </row>
-    <row r="17" spans="1:23">
+      <c r="X16">
+        <v>1</v>
+      </c>
+      <c r="Y16">
+        <v>3</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="4"/>
+    </row>
+    <row r="17" spans="1:27">
       <c r="A17" t="s">
         <v>15</v>
       </c>
-      <c r="D17">
+      <c r="G17">
+        <v>7</v>
+      </c>
+      <c r="H17">
         <v>5</v>
       </c>
-      <c r="E17">
+      <c r="I17">
         <v>5</v>
       </c>
-      <c r="F17">
+      <c r="J17">
         <v>10</v>
       </c>
-      <c r="G17">
+      <c r="K17">
         <v>6</v>
       </c>
-      <c r="H17">
+      <c r="L17">
         <v>9</v>
       </c>
-      <c r="I17">
+      <c r="M17">
         <v>2</v>
       </c>
-      <c r="J17">
+      <c r="N17">
         <v>9</v>
       </c>
-      <c r="K17">
+      <c r="O17">
         <v>9</v>
       </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>3</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17" s="3">
+      <c r="P17">
+        <v>1</v>
+      </c>
+      <c r="Q17">
+        <v>3</v>
+      </c>
+      <c r="R17">
+        <v>1</v>
+      </c>
+      <c r="S17" s="3">
         <v>4</v>
       </c>
-      <c r="P17">
-        <v>3</v>
-      </c>
-      <c r="Q17">
-        <v>0</v>
-      </c>
-      <c r="R17">
-        <v>0</v>
-      </c>
-      <c r="S17">
-        <v>1</v>
-      </c>
       <c r="T17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U17">
         <v>0</v>
@@ -1579,200 +1627,221 @@
       <c r="V17">
         <v>0</v>
       </c>
-      <c r="W17" s="4"/>
-    </row>
-    <row r="18" spans="1:23">
+      <c r="W17">
+        <v>1</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="4"/>
+    </row>
+    <row r="18" spans="1:27">
       <c r="A18" t="s">
         <v>16</v>
       </c>
-      <c r="D18">
+      <c r="G18">
+        <v>15489</v>
+      </c>
+      <c r="H18">
         <v>13828</v>
       </c>
-      <c r="E18">
+      <c r="I18">
         <v>12667</v>
       </c>
-      <c r="F18">
+      <c r="J18">
         <v>11427</v>
       </c>
-      <c r="G18">
+      <c r="K18">
         <v>10242</v>
       </c>
-      <c r="H18">
+      <c r="L18">
         <v>8976</v>
       </c>
-      <c r="I18">
+      <c r="M18">
         <v>8067</v>
       </c>
-      <c r="J18">
+      <c r="N18">
         <v>7312</v>
       </c>
-      <c r="K18">
+      <c r="O18">
         <v>6243</v>
       </c>
-      <c r="L18">
+      <c r="P18">
         <v>5168</v>
       </c>
-      <c r="M18">
+      <c r="Q18">
         <v>3937</v>
       </c>
-      <c r="N18">
+      <c r="R18">
         <v>3184</v>
       </c>
-      <c r="O18">
+      <c r="S18">
         <v>2704</v>
       </c>
-      <c r="P18">
+      <c r="T18">
         <v>2122</v>
       </c>
-      <c r="Q18">
+      <c r="U18">
         <v>1770</v>
       </c>
-      <c r="R18">
+      <c r="V18">
         <v>1479</v>
       </c>
-      <c r="S18">
+      <c r="W18">
         <v>1187</v>
       </c>
-      <c r="T18">
+      <c r="X18">
         <v>863</v>
       </c>
-      <c r="U18">
+      <c r="Y18">
         <v>518</v>
       </c>
-      <c r="V18">
+      <c r="Z18">
         <v>259</v>
       </c>
-      <c r="W18" s="4" t="s">
+      <c r="AA18" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:23">
+    <row r="19" spans="1:27">
       <c r="A19" t="s">
         <v>17</v>
       </c>
-      <c r="D19">
+      <c r="G19">
+        <v>23761</v>
+      </c>
+      <c r="H19">
         <v>23889</v>
       </c>
-      <c r="E19">
+      <c r="I19">
         <v>23700</v>
       </c>
-      <c r="F19">
+      <c r="J19">
         <v>23427</v>
       </c>
-      <c r="G19">
+      <c r="K19">
         <v>23119</v>
       </c>
-      <c r="H19">
+      <c r="L19">
         <v>22848</v>
       </c>
-      <c r="I19">
+      <c r="M19">
         <v>22499</v>
       </c>
-      <c r="J19">
+      <c r="N19">
         <v>21979</v>
       </c>
-      <c r="K19">
+      <c r="O19">
         <v>21473</v>
       </c>
-      <c r="L19">
+      <c r="P19">
         <v>20602</v>
       </c>
-      <c r="M19">
+      <c r="Q19">
         <v>19791</v>
       </c>
-      <c r="N19">
+      <c r="R19">
         <v>18532</v>
       </c>
-      <c r="O19">
+      <c r="S19">
         <v>17656</v>
       </c>
-      <c r="P19">
+      <c r="T19">
         <v>16199</v>
       </c>
-      <c r="Q19">
+      <c r="U19">
         <v>14933</v>
       </c>
-      <c r="R19">
+      <c r="V19">
         <v>13345</v>
       </c>
-      <c r="S19">
+      <c r="W19">
         <v>12270</v>
       </c>
-      <c r="T19">
+      <c r="X19">
         <v>11145</v>
       </c>
-      <c r="U19">
+      <c r="Y19">
         <v>10071</v>
       </c>
-      <c r="V19">
+      <c r="Z19">
         <v>8881</v>
       </c>
-      <c r="W19" s="4" t="s">
+      <c r="AA19" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:23">
+    <row r="20" spans="1:27">
       <c r="A20" t="s">
         <v>18</v>
       </c>
-      <c r="D20">
+      <c r="G20">
+        <v>5339</v>
+      </c>
+      <c r="H20">
         <v>4593</v>
       </c>
-      <c r="E20">
+      <c r="I20">
         <v>4105</v>
       </c>
-      <c r="F20">
+      <c r="J20">
         <v>3704</v>
       </c>
-      <c r="G20">
+      <c r="K20">
         <v>3297</v>
       </c>
-      <c r="H20">
+      <c r="L20">
         <v>2837</v>
       </c>
-      <c r="I20">
+      <c r="M20">
         <v>2466</v>
       </c>
-      <c r="J20">
+      <c r="N20">
         <v>2249</v>
       </c>
-      <c r="K20">
+      <c r="O20">
         <v>1884</v>
       </c>
-      <c r="L20">
+      <c r="P20">
         <v>1582</v>
       </c>
-      <c r="M20">
+      <c r="Q20">
         <v>1218</v>
       </c>
-      <c r="N20">
+      <c r="R20">
         <v>991</v>
       </c>
-      <c r="O20">
+      <c r="S20">
         <v>815</v>
       </c>
-      <c r="P20">
+      <c r="T20">
         <v>654</v>
       </c>
-      <c r="Q20">
+      <c r="U20">
         <v>556</v>
       </c>
-      <c r="R20">
+      <c r="V20">
         <v>483</v>
       </c>
-      <c r="S20">
+      <c r="W20">
         <v>397</v>
       </c>
-      <c r="T20">
+      <c r="X20">
         <v>282</v>
       </c>
-      <c r="U20">
+      <c r="Y20">
         <v>171</v>
       </c>
-      <c r="V20">
+      <c r="Z20">
         <v>95</v>
       </c>
-      <c r="W20" s="4" t="s">
+      <c r="AA20" s="4" t="s">
         <v>20</v>
       </c>
     </row>

--- a/daily released.xlsx
+++ b/daily released.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liang/code/shanghai-2022Mar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78AC3A14-5D54-B641-BC73-7BA9317ACFEC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{719C7C7D-60AC-B44C-94FE-1CBABD0C4F32}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7720" yWindow="1480" windowWidth="19840" windowHeight="13820" xr2:uid="{B61748C7-A350-CD4C-8140-E3EEE49B7E25}"/>
+    <workbookView xWindow="5760" yWindow="1480" windowWidth="19840" windowHeight="13820" xr2:uid="{B61748C7-A350-CD4C-8140-E3EEE49B7E25}"/>
   </bookViews>
   <sheets>
-    <sheet name="0420" sheetId="1" r:id="rId1"/>
+    <sheet name="0421" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -498,7 +498,7 @@
   <dimension ref="A1:AA20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -589,6 +589,9 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
+      <c r="F2">
+        <v>199</v>
+      </c>
       <c r="G2">
         <v>133</v>
       </c>
@@ -654,6 +657,9 @@
     <row r="3" spans="1:27">
       <c r="A3" t="s">
         <v>1</v>
+      </c>
+      <c r="F3">
+        <v>82</v>
       </c>
       <c r="G3">
         <v>71</v>
@@ -721,6 +727,9 @@
       <c r="A4" t="s">
         <v>2</v>
       </c>
+      <c r="F4">
+        <v>35</v>
+      </c>
       <c r="G4">
         <v>55</v>
       </c>
@@ -786,6 +795,9 @@
     <row r="5" spans="1:27">
       <c r="A5" t="s">
         <v>3</v>
+      </c>
+      <c r="F5">
+        <v>44</v>
       </c>
       <c r="G5">
         <v>47</v>
@@ -853,6 +865,9 @@
       <c r="A6" t="s">
         <v>4</v>
       </c>
+      <c r="F6">
+        <v>72</v>
+      </c>
       <c r="G6">
         <v>35</v>
       </c>
@@ -919,6 +934,9 @@
       <c r="A7" t="s">
         <v>5</v>
       </c>
+      <c r="F7">
+        <v>39</v>
+      </c>
       <c r="G7">
         <v>38</v>
       </c>
@@ -985,6 +1003,9 @@
       <c r="A8" t="s">
         <v>6</v>
       </c>
+      <c r="F8">
+        <v>22</v>
+      </c>
       <c r="G8">
         <v>54</v>
       </c>
@@ -1051,6 +1072,9 @@
       <c r="A9" t="s">
         <v>7</v>
       </c>
+      <c r="F9">
+        <v>28</v>
+      </c>
       <c r="G9">
         <v>40</v>
       </c>
@@ -1117,6 +1141,9 @@
       <c r="A10" t="s">
         <v>8</v>
       </c>
+      <c r="F10">
+        <v>29</v>
+      </c>
       <c r="G10">
         <v>47</v>
       </c>
@@ -1183,6 +1210,9 @@
       <c r="A11" t="s">
         <v>9</v>
       </c>
+      <c r="F11">
+        <v>10</v>
+      </c>
       <c r="G11">
         <v>22</v>
       </c>
@@ -1249,6 +1279,9 @@
       <c r="A12" t="s">
         <v>10</v>
       </c>
+      <c r="F12">
+        <v>77</v>
+      </c>
       <c r="G12">
         <v>132</v>
       </c>
@@ -1315,6 +1348,9 @@
       <c r="A13" t="s">
         <v>11</v>
       </c>
+      <c r="F13">
+        <v>15</v>
+      </c>
       <c r="G13">
         <v>17</v>
       </c>
@@ -1381,6 +1417,9 @@
       <c r="A14" t="s">
         <v>12</v>
       </c>
+      <c r="F14">
+        <v>63</v>
+      </c>
       <c r="G14">
         <v>43</v>
       </c>
@@ -1447,6 +1486,9 @@
       <c r="A15" t="s">
         <v>13</v>
       </c>
+      <c r="F15">
+        <v>42</v>
+      </c>
       <c r="G15">
         <v>63</v>
       </c>
@@ -1513,6 +1555,9 @@
       <c r="A16" t="s">
         <v>14</v>
       </c>
+      <c r="F16">
+        <v>20</v>
+      </c>
       <c r="G16">
         <v>33</v>
       </c>
@@ -1579,6 +1624,9 @@
       <c r="A17" t="s">
         <v>15</v>
       </c>
+      <c r="F17">
+        <v>8</v>
+      </c>
       <c r="G17">
         <v>7</v>
       </c>
@@ -1645,6 +1693,9 @@
       <c r="A18" t="s">
         <v>16</v>
       </c>
+      <c r="F18">
+        <v>16853</v>
+      </c>
       <c r="G18">
         <v>15489</v>
       </c>
@@ -1713,6 +1764,9 @@
       <c r="A19" t="s">
         <v>17</v>
       </c>
+      <c r="F19">
+        <v>23573</v>
+      </c>
       <c r="G19">
         <v>23761</v>
       </c>
@@ -1780,6 +1834,9 @@
     <row r="20" spans="1:27">
       <c r="A20" t="s">
         <v>18</v>
+      </c>
+      <c r="F20">
+        <v>6054</v>
       </c>
       <c r="G20">
         <v>5339</v>

--- a/daily released.xlsx
+++ b/daily released.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liang/code/shanghai-2022Mar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{719C7C7D-60AC-B44C-94FE-1CBABD0C4F32}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE947BAD-035A-1649-A45F-D0B8EE928E28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5760" yWindow="1480" windowWidth="19840" windowHeight="13820" xr2:uid="{B61748C7-A350-CD4C-8140-E3EEE49B7E25}"/>
   </bookViews>
   <sheets>
-    <sheet name="0421" sheetId="1" r:id="rId1"/>
+    <sheet name="0422" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -495,1410 +495,1485 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4A5D483-70AF-4347-8031-2888AEA9692A}">
-  <dimension ref="A1:AA20"/>
+  <dimension ref="A1:AG20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="11.83203125" customWidth="1"/>
-    <col min="2" max="27" width="6.1640625" customWidth="1"/>
-    <col min="28" max="28" width="71.1640625" customWidth="1"/>
+    <col min="2" max="33" width="6.1640625" customWidth="1"/>
+    <col min="34" max="34" width="71.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="1" customFormat="1" ht="22" customHeight="1">
+    <row r="1" spans="1:33" s="1" customFormat="1" ht="22" customHeight="1">
       <c r="C1" s="2">
+        <v>44681</v>
+      </c>
+      <c r="D1" s="2">
+        <v>44680</v>
+      </c>
+      <c r="E1" s="2">
+        <v>44679</v>
+      </c>
+      <c r="F1" s="2">
+        <v>44678</v>
+      </c>
+      <c r="G1" s="2">
+        <v>44677</v>
+      </c>
+      <c r="H1" s="2">
+        <v>44676</v>
+      </c>
+      <c r="I1" s="2">
         <v>44675</v>
       </c>
-      <c r="D1" s="2">
+      <c r="J1" s="2">
         <v>44674</v>
       </c>
-      <c r="E1" s="2">
+      <c r="K1" s="2">
         <v>44673</v>
       </c>
-      <c r="F1" s="2">
+      <c r="L1" s="2">
         <v>44672</v>
       </c>
-      <c r="G1" s="2">
+      <c r="M1" s="2">
         <v>44671</v>
       </c>
-      <c r="H1" s="2">
+      <c r="N1" s="2">
         <v>44670</v>
       </c>
-      <c r="I1" s="2">
+      <c r="O1" s="2">
         <v>44669</v>
       </c>
-      <c r="J1" s="2">
+      <c r="P1" s="2">
         <v>44668</v>
       </c>
-      <c r="K1" s="2">
+      <c r="Q1" s="2">
         <v>44667</v>
       </c>
-      <c r="L1" s="2">
+      <c r="R1" s="2">
         <v>44666</v>
       </c>
-      <c r="M1" s="2">
+      <c r="S1" s="2">
         <v>44665</v>
       </c>
-      <c r="N1" s="2">
+      <c r="T1" s="2">
         <v>44664</v>
       </c>
-      <c r="O1" s="2">
+      <c r="U1" s="2">
         <v>44663</v>
       </c>
-      <c r="P1" s="2">
+      <c r="V1" s="2">
         <v>44662</v>
       </c>
-      <c r="Q1" s="2">
+      <c r="W1" s="2">
         <v>44661</v>
       </c>
-      <c r="R1" s="2">
+      <c r="X1" s="2">
         <v>44660</v>
       </c>
-      <c r="S1" s="2">
+      <c r="Y1" s="2">
         <v>44659</v>
       </c>
-      <c r="T1" s="2">
+      <c r="Z1" s="2">
         <v>44658</v>
       </c>
-      <c r="U1" s="2">
+      <c r="AA1" s="2">
         <v>44657</v>
       </c>
-      <c r="V1" s="2">
+      <c r="AB1" s="2">
         <v>44656</v>
       </c>
-      <c r="W1" s="2">
+      <c r="AC1" s="2">
         <v>44655</v>
       </c>
-      <c r="X1" s="2">
+      <c r="AD1" s="2">
         <v>44654</v>
       </c>
-      <c r="Y1" s="2">
+      <c r="AE1" s="2">
         <v>44653</v>
       </c>
-      <c r="Z1" s="2">
+      <c r="AF1" s="2">
         <v>44652</v>
       </c>
-      <c r="AA1" s="5">
+      <c r="AG1" s="5">
         <v>44651</v>
       </c>
     </row>
-    <row r="2" spans="1:27">
+    <row r="2" spans="1:33">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="F2">
+      <c r="K2">
+        <v>134</v>
+      </c>
+      <c r="L2">
         <v>199</v>
       </c>
-      <c r="G2">
+      <c r="M2">
         <v>133</v>
       </c>
-      <c r="H2">
+      <c r="N2">
         <v>71</v>
       </c>
-      <c r="I2">
+      <c r="O2">
         <v>78</v>
       </c>
-      <c r="J2">
+      <c r="P2">
         <v>74</v>
       </c>
-      <c r="K2">
+      <c r="Q2">
         <v>46</v>
       </c>
-      <c r="L2">
+      <c r="R2">
         <v>119</v>
       </c>
-      <c r="M2">
+      <c r="S2">
         <v>96</v>
       </c>
-      <c r="N2">
+      <c r="T2">
         <v>140</v>
       </c>
-      <c r="O2">
+      <c r="U2">
         <v>115</v>
       </c>
-      <c r="P2">
+      <c r="V2">
         <v>222</v>
       </c>
-      <c r="Q2">
+      <c r="W2">
         <v>108</v>
       </c>
-      <c r="R2">
+      <c r="X2">
         <v>34</v>
       </c>
-      <c r="S2" s="3">
+      <c r="Y2" s="3">
         <v>177</v>
       </c>
-      <c r="T2">
+      <c r="Z2">
         <v>7</v>
       </c>
-      <c r="U2">
+      <c r="AA2">
         <v>40</v>
       </c>
-      <c r="V2">
+      <c r="AB2">
         <v>37</v>
       </c>
-      <c r="W2">
+      <c r="AC2">
         <v>30</v>
       </c>
-      <c r="X2">
+      <c r="AD2">
         <v>37</v>
       </c>
-      <c r="Y2">
+      <c r="AE2">
         <v>25</v>
       </c>
-      <c r="Z2">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="4"/>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2" s="4"/>
     </row>
-    <row r="3" spans="1:27">
+    <row r="3" spans="1:33">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="F3">
+      <c r="K3">
+        <v>140</v>
+      </c>
+      <c r="L3">
         <v>82</v>
       </c>
-      <c r="G3">
+      <c r="M3">
         <v>71</v>
       </c>
-      <c r="H3">
+      <c r="N3">
         <v>43</v>
       </c>
-      <c r="I3">
+      <c r="O3">
         <v>62</v>
       </c>
-      <c r="J3">
+      <c r="P3">
         <v>52</v>
       </c>
-      <c r="K3">
+      <c r="Q3">
         <v>46</v>
       </c>
-      <c r="L3">
+      <c r="R3">
         <v>29</v>
       </c>
-      <c r="M3">
+      <c r="S3">
         <v>11</v>
       </c>
-      <c r="N3">
+      <c r="T3">
         <v>46</v>
       </c>
-      <c r="O3">
+      <c r="U3">
         <v>14</v>
       </c>
-      <c r="P3">
+      <c r="V3">
         <v>43</v>
       </c>
-      <c r="Q3">
+      <c r="W3">
         <v>10</v>
       </c>
-      <c r="R3">
+      <c r="X3">
         <v>20</v>
       </c>
-      <c r="S3" s="3">
-        <v>3</v>
-      </c>
-      <c r="T3">
+      <c r="Y3" s="3">
+        <v>3</v>
+      </c>
+      <c r="Z3">
         <v>18</v>
       </c>
-      <c r="U3">
+      <c r="AA3">
         <v>4</v>
       </c>
-      <c r="V3">
+      <c r="AB3">
         <v>14</v>
       </c>
-      <c r="W3">
+      <c r="AC3">
         <v>13</v>
       </c>
-      <c r="X3">
+      <c r="AD3">
         <v>9</v>
       </c>
-      <c r="Y3">
+      <c r="AE3">
         <v>5</v>
       </c>
-      <c r="Z3">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="4"/>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="4"/>
     </row>
-    <row r="4" spans="1:27">
+    <row r="4" spans="1:33">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="F4">
+      <c r="K4">
+        <v>43</v>
+      </c>
+      <c r="L4">
         <v>35</v>
       </c>
-      <c r="G4">
+      <c r="M4">
         <v>55</v>
       </c>
-      <c r="H4">
+      <c r="N4">
         <v>41</v>
       </c>
-      <c r="I4">
+      <c r="O4">
         <v>6</v>
       </c>
-      <c r="J4">
+      <c r="P4">
         <v>42</v>
       </c>
-      <c r="K4">
+      <c r="Q4">
         <v>50</v>
       </c>
-      <c r="L4">
+      <c r="R4">
         <v>32</v>
       </c>
-      <c r="M4">
+      <c r="S4">
         <v>18</v>
       </c>
-      <c r="N4">
+      <c r="T4">
         <v>11</v>
       </c>
-      <c r="O4">
+      <c r="U4">
         <v>23</v>
       </c>
-      <c r="P4">
+      <c r="V4">
         <v>15</v>
       </c>
-      <c r="Q4">
+      <c r="W4">
         <v>9</v>
       </c>
-      <c r="R4">
+      <c r="X4">
         <v>9</v>
       </c>
-      <c r="S4" s="3">
-        <v>1</v>
-      </c>
-      <c r="T4">
+      <c r="Y4" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z4">
         <v>8</v>
       </c>
-      <c r="U4">
+      <c r="AA4">
         <v>7</v>
       </c>
-      <c r="V4">
+      <c r="AB4">
         <v>7</v>
       </c>
-      <c r="W4">
+      <c r="AC4">
         <v>6</v>
       </c>
-      <c r="X4">
+      <c r="AD4">
         <v>7</v>
       </c>
-      <c r="Y4">
-        <v>3</v>
-      </c>
-      <c r="Z4">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="4"/>
+      <c r="AE4">
+        <v>3</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="4"/>
     </row>
-    <row r="5" spans="1:27">
+    <row r="5" spans="1:33">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="F5">
+      <c r="K5">
+        <v>64</v>
+      </c>
+      <c r="L5">
         <v>44</v>
       </c>
-      <c r="G5">
+      <c r="M5">
         <v>47</v>
       </c>
-      <c r="H5">
+      <c r="N5">
         <v>46</v>
       </c>
-      <c r="I5">
+      <c r="O5">
         <v>69</v>
       </c>
-      <c r="J5">
+      <c r="P5">
         <v>15</v>
       </c>
-      <c r="K5">
+      <c r="Q5">
         <v>47</v>
       </c>
-      <c r="L5">
+      <c r="R5">
         <v>35</v>
       </c>
-      <c r="M5">
-        <v>3</v>
-      </c>
-      <c r="N5">
+      <c r="S5">
+        <v>3</v>
+      </c>
+      <c r="T5">
         <v>16</v>
       </c>
-      <c r="O5">
+      <c r="U5">
         <v>45</v>
       </c>
-      <c r="P5">
+      <c r="V5">
         <v>4</v>
       </c>
-      <c r="Q5">
+      <c r="W5">
         <v>14</v>
       </c>
-      <c r="R5">
+      <c r="X5">
         <v>16</v>
       </c>
-      <c r="S5" s="3">
-        <v>1</v>
-      </c>
-      <c r="T5">
-        <v>3</v>
-      </c>
-      <c r="U5">
+      <c r="Y5" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z5">
+        <v>3</v>
+      </c>
+      <c r="AA5">
         <v>7</v>
       </c>
-      <c r="V5">
+      <c r="AB5">
         <v>2</v>
       </c>
-      <c r="W5">
+      <c r="AC5">
         <v>10</v>
       </c>
-      <c r="X5">
-        <v>3</v>
-      </c>
-      <c r="Y5">
+      <c r="AD5">
+        <v>3</v>
+      </c>
+      <c r="AE5">
         <v>14</v>
       </c>
-      <c r="Z5">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="4"/>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="4"/>
     </row>
-    <row r="6" spans="1:27">
+    <row r="6" spans="1:33">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="F6">
+      <c r="K6">
+        <v>50</v>
+      </c>
+      <c r="L6">
         <v>72</v>
       </c>
-      <c r="G6">
+      <c r="M6">
         <v>35</v>
       </c>
-      <c r="H6">
+      <c r="N6">
         <v>6</v>
       </c>
-      <c r="I6">
+      <c r="O6">
         <v>4</v>
       </c>
-      <c r="J6">
+      <c r="P6">
         <v>14</v>
       </c>
-      <c r="K6">
+      <c r="Q6">
         <v>8</v>
       </c>
-      <c r="L6">
-        <v>3</v>
-      </c>
-      <c r="M6">
+      <c r="R6">
+        <v>3</v>
+      </c>
+      <c r="S6">
         <v>26</v>
       </c>
-      <c r="N6">
+      <c r="T6">
         <v>10</v>
       </c>
-      <c r="O6">
-        <v>1</v>
-      </c>
-      <c r="P6">
+      <c r="U6">
+        <v>1</v>
+      </c>
+      <c r="V6">
         <v>12</v>
       </c>
-      <c r="Q6">
+      <c r="W6">
         <v>4</v>
       </c>
-      <c r="R6">
-        <v>1</v>
-      </c>
-      <c r="S6" s="3">
-        <v>1</v>
-      </c>
-      <c r="T6">
+      <c r="X6">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z6">
         <v>12</v>
       </c>
-      <c r="U6">
-        <v>1</v>
-      </c>
-      <c r="V6">
+      <c r="AA6">
+        <v>1</v>
+      </c>
+      <c r="AB6">
         <v>4</v>
       </c>
-      <c r="W6">
+      <c r="AC6">
         <v>7</v>
       </c>
-      <c r="X6">
-        <v>3</v>
-      </c>
-      <c r="Y6">
+      <c r="AD6">
+        <v>3</v>
+      </c>
+      <c r="AE6">
         <v>2</v>
       </c>
-      <c r="Z6">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="4"/>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="4"/>
     </row>
-    <row r="7" spans="1:27">
+    <row r="7" spans="1:33">
       <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="F7">
+      <c r="K7">
+        <v>37</v>
+      </c>
+      <c r="L7">
         <v>39</v>
       </c>
-      <c r="G7">
+      <c r="M7">
         <v>38</v>
       </c>
-      <c r="H7">
+      <c r="N7">
         <v>18</v>
-      </c>
-      <c r="I7">
-        <v>9</v>
-      </c>
-      <c r="J7">
-        <v>12</v>
-      </c>
-      <c r="K7">
-        <v>24</v>
-      </c>
-      <c r="L7">
-        <v>22</v>
-      </c>
-      <c r="M7">
-        <v>2</v>
-      </c>
-      <c r="N7">
-        <v>10</v>
       </c>
       <c r="O7">
         <v>9</v>
       </c>
       <c r="P7">
+        <v>12</v>
+      </c>
+      <c r="Q7">
+        <v>24</v>
+      </c>
+      <c r="R7">
+        <v>22</v>
+      </c>
+      <c r="S7">
+        <v>2</v>
+      </c>
+      <c r="T7">
+        <v>10</v>
+      </c>
+      <c r="U7">
+        <v>9</v>
+      </c>
+      <c r="V7">
         <v>7</v>
       </c>
-      <c r="Q7">
+      <c r="W7">
         <v>11</v>
       </c>
-      <c r="R7">
+      <c r="X7">
         <v>8</v>
       </c>
-      <c r="S7" s="3">
-        <v>0</v>
-      </c>
-      <c r="T7">
-        <v>1</v>
-      </c>
-      <c r="U7">
+      <c r="Y7" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>1</v>
+      </c>
+      <c r="AA7">
         <v>4</v>
       </c>
-      <c r="V7">
-        <v>3</v>
-      </c>
-      <c r="W7">
-        <v>3</v>
-      </c>
-      <c r="X7">
+      <c r="AB7">
+        <v>3</v>
+      </c>
+      <c r="AC7">
+        <v>3</v>
+      </c>
+      <c r="AD7">
         <v>4</v>
       </c>
-      <c r="Y7">
+      <c r="AE7">
         <v>5</v>
       </c>
-      <c r="Z7">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="4"/>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="4"/>
     </row>
-    <row r="8" spans="1:27">
+    <row r="8" spans="1:33">
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="F8">
+      <c r="K8">
+        <v>44</v>
+      </c>
+      <c r="L8">
         <v>22</v>
       </c>
-      <c r="G8">
+      <c r="M8">
         <v>54</v>
       </c>
-      <c r="H8">
+      <c r="N8">
         <v>38</v>
       </c>
-      <c r="I8">
+      <c r="O8">
         <v>59</v>
       </c>
-      <c r="J8">
+      <c r="P8">
         <v>23</v>
       </c>
-      <c r="K8">
+      <c r="Q8">
         <v>49</v>
       </c>
-      <c r="L8">
+      <c r="R8">
         <v>6</v>
       </c>
-      <c r="M8">
+      <c r="S8">
         <v>22</v>
       </c>
-      <c r="N8">
+      <c r="T8">
         <v>20</v>
       </c>
-      <c r="O8">
+      <c r="U8">
         <v>15</v>
       </c>
-      <c r="P8">
-        <v>1</v>
-      </c>
-      <c r="Q8">
-        <v>1</v>
-      </c>
-      <c r="R8">
+      <c r="V8">
+        <v>1</v>
+      </c>
+      <c r="W8">
+        <v>1</v>
+      </c>
+      <c r="X8">
         <v>9</v>
       </c>
-      <c r="S8" s="3">
-        <v>0</v>
-      </c>
-      <c r="T8">
+      <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z8">
         <v>5</v>
       </c>
-      <c r="U8">
-        <v>1</v>
-      </c>
-      <c r="V8">
+      <c r="AA8">
+        <v>1</v>
+      </c>
+      <c r="AB8">
         <v>2</v>
       </c>
-      <c r="W8">
+      <c r="AC8">
         <v>2</v>
       </c>
-      <c r="X8">
-        <v>1</v>
-      </c>
-      <c r="Y8">
+      <c r="AD8">
+        <v>1</v>
+      </c>
+      <c r="AE8">
         <v>2</v>
       </c>
-      <c r="Z8">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="4"/>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="4"/>
     </row>
-    <row r="9" spans="1:27">
+    <row r="9" spans="1:33">
       <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="F9">
+      <c r="K9">
+        <v>44</v>
+      </c>
+      <c r="L9">
         <v>28</v>
       </c>
-      <c r="G9">
+      <c r="M9">
         <v>40</v>
       </c>
-      <c r="H9">
+      <c r="N9">
         <v>43</v>
       </c>
-      <c r="I9">
+      <c r="O9">
         <v>22</v>
       </c>
-      <c r="J9">
+      <c r="P9">
         <v>31</v>
       </c>
-      <c r="K9">
+      <c r="Q9">
         <v>17</v>
       </c>
-      <c r="L9">
+      <c r="R9">
         <v>13</v>
       </c>
-      <c r="M9">
+      <c r="S9">
         <v>8</v>
       </c>
-      <c r="N9">
+      <c r="T9">
         <v>7</v>
       </c>
-      <c r="O9">
+      <c r="U9">
         <v>9</v>
       </c>
-      <c r="P9">
-        <v>3</v>
-      </c>
-      <c r="Q9">
+      <c r="V9">
+        <v>3</v>
+      </c>
+      <c r="W9">
         <v>4</v>
       </c>
-      <c r="R9">
-        <v>3</v>
-      </c>
-      <c r="S9" s="3">
+      <c r="X9">
+        <v>3</v>
+      </c>
+      <c r="Y9" s="3">
         <v>5</v>
       </c>
-      <c r="T9">
+      <c r="Z9">
         <v>4</v>
       </c>
-      <c r="U9">
-        <v>0</v>
-      </c>
-      <c r="V9">
-        <v>1</v>
-      </c>
-      <c r="W9">
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>1</v>
+      </c>
+      <c r="AC9">
         <v>5</v>
       </c>
-      <c r="X9">
-        <v>3</v>
-      </c>
-      <c r="Y9">
+      <c r="AD9">
+        <v>3</v>
+      </c>
+      <c r="AE9">
         <v>2</v>
       </c>
-      <c r="Z9">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="4"/>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="4"/>
     </row>
-    <row r="10" spans="1:27">
+    <row r="10" spans="1:33">
       <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="F10">
+      <c r="K10">
+        <v>269</v>
+      </c>
+      <c r="L10">
         <v>29</v>
       </c>
-      <c r="G10">
+      <c r="M10">
         <v>47</v>
       </c>
-      <c r="H10">
+      <c r="N10">
         <v>45</v>
       </c>
-      <c r="I10">
+      <c r="O10">
         <v>25</v>
       </c>
-      <c r="J10">
+      <c r="P10">
         <v>30</v>
       </c>
-      <c r="K10">
+      <c r="Q10">
         <v>29</v>
       </c>
-      <c r="L10">
+      <c r="R10">
         <v>8</v>
       </c>
-      <c r="M10">
-        <v>1</v>
-      </c>
-      <c r="N10">
+      <c r="S10">
+        <v>1</v>
+      </c>
+      <c r="T10">
         <v>32</v>
       </c>
-      <c r="O10">
+      <c r="U10">
         <v>23</v>
       </c>
-      <c r="P10">
+      <c r="V10">
         <v>16</v>
       </c>
-      <c r="Q10">
+      <c r="W10">
         <v>6</v>
       </c>
-      <c r="R10">
+      <c r="X10">
         <v>18</v>
       </c>
-      <c r="S10" s="3">
-        <v>0</v>
-      </c>
-      <c r="T10">
+      <c r="Y10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z10">
         <v>11</v>
       </c>
-      <c r="U10">
+      <c r="AA10">
         <v>6</v>
       </c>
-      <c r="V10">
-        <v>0</v>
-      </c>
-      <c r="W10">
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
         <v>15</v>
       </c>
-      <c r="X10">
+      <c r="AD10">
         <v>5</v>
       </c>
-      <c r="Y10">
-        <v>3</v>
-      </c>
-      <c r="Z10">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="4"/>
+      <c r="AE10">
+        <v>3</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="4"/>
     </row>
-    <row r="11" spans="1:27">
+    <row r="11" spans="1:33">
       <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="F11">
+      <c r="K11">
+        <v>11</v>
+      </c>
+      <c r="L11">
         <v>10</v>
       </c>
-      <c r="G11">
+      <c r="M11">
         <v>22</v>
       </c>
-      <c r="H11">
+      <c r="N11">
         <v>14</v>
       </c>
-      <c r="I11">
+      <c r="O11">
         <v>8</v>
       </c>
-      <c r="J11">
+      <c r="P11">
         <v>16</v>
       </c>
-      <c r="K11">
+      <c r="Q11">
         <v>7</v>
       </c>
-      <c r="L11">
-        <v>3</v>
-      </c>
-      <c r="M11">
-        <v>3</v>
-      </c>
-      <c r="N11">
+      <c r="R11">
+        <v>3</v>
+      </c>
+      <c r="S11">
+        <v>3</v>
+      </c>
+      <c r="T11">
         <v>16</v>
-      </c>
-      <c r="O11">
-        <v>10</v>
-      </c>
-      <c r="P11">
-        <v>4</v>
-      </c>
-      <c r="Q11">
-        <v>15</v>
-      </c>
-      <c r="R11">
-        <v>25</v>
-      </c>
-      <c r="S11" s="3">
-        <v>5</v>
-      </c>
-      <c r="T11">
-        <v>11</v>
       </c>
       <c r="U11">
         <v>10</v>
       </c>
       <c r="V11">
+        <v>4</v>
+      </c>
+      <c r="W11">
+        <v>15</v>
+      </c>
+      <c r="X11">
+        <v>25</v>
+      </c>
+      <c r="Y11" s="3">
+        <v>5</v>
+      </c>
+      <c r="Z11">
+        <v>11</v>
+      </c>
+      <c r="AA11">
+        <v>10</v>
+      </c>
+      <c r="AB11">
         <v>9</v>
       </c>
-      <c r="W11">
+      <c r="AC11">
         <v>4</v>
       </c>
-      <c r="X11">
+      <c r="AD11">
         <v>19</v>
       </c>
-      <c r="Y11">
+      <c r="AE11">
         <v>4</v>
       </c>
-      <c r="Z11">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="4"/>
+      <c r="AF11">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="4"/>
     </row>
-    <row r="12" spans="1:27">
+    <row r="12" spans="1:33">
       <c r="A12" t="s">
         <v>10</v>
       </c>
-      <c r="F12">
+      <c r="K12">
+        <v>111</v>
+      </c>
+      <c r="L12">
         <v>77</v>
       </c>
-      <c r="G12">
+      <c r="M12">
         <v>132</v>
       </c>
-      <c r="H12">
+      <c r="N12">
         <v>24</v>
       </c>
-      <c r="I12">
+      <c r="O12">
         <v>20</v>
       </c>
-      <c r="J12">
+      <c r="P12">
         <v>46</v>
       </c>
-      <c r="K12">
+      <c r="Q12">
         <v>72</v>
       </c>
-      <c r="L12">
+      <c r="R12">
         <v>25</v>
       </c>
-      <c r="M12">
+      <c r="S12">
         <v>12</v>
       </c>
-      <c r="N12">
+      <c r="T12">
         <v>31</v>
       </c>
-      <c r="O12">
+      <c r="U12">
         <v>31</v>
       </c>
-      <c r="P12">
+      <c r="V12">
         <v>27</v>
       </c>
-      <c r="Q12">
+      <c r="W12">
         <v>36</v>
       </c>
-      <c r="R12">
+      <c r="X12">
         <v>43</v>
       </c>
-      <c r="S12" s="3">
-        <v>1</v>
-      </c>
-      <c r="T12">
+      <c r="Y12" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z12">
         <v>27</v>
       </c>
-      <c r="U12">
+      <c r="AA12">
         <v>8</v>
       </c>
-      <c r="V12">
+      <c r="AB12">
         <v>15</v>
       </c>
-      <c r="W12">
+      <c r="AC12">
         <v>22</v>
       </c>
-      <c r="X12">
+      <c r="AD12">
         <v>15</v>
       </c>
-      <c r="Y12">
+      <c r="AE12">
         <v>14</v>
       </c>
-      <c r="Z12">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="4"/>
+      <c r="AF12">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="4"/>
     </row>
-    <row r="13" spans="1:27">
+    <row r="13" spans="1:33">
       <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="F13">
+      <c r="K13">
+        <v>9</v>
+      </c>
+      <c r="L13">
         <v>15</v>
       </c>
-      <c r="G13">
+      <c r="M13">
         <v>17</v>
       </c>
-      <c r="H13">
+      <c r="N13">
         <v>15</v>
       </c>
-      <c r="I13">
+      <c r="O13">
         <v>14</v>
       </c>
-      <c r="J13">
+      <c r="P13">
         <v>27</v>
       </c>
-      <c r="K13">
+      <c r="Q13">
         <v>7</v>
       </c>
-      <c r="L13">
+      <c r="R13">
         <v>14</v>
       </c>
-      <c r="M13">
+      <c r="S13">
         <v>7</v>
       </c>
-      <c r="N13">
+      <c r="T13">
         <v>8</v>
       </c>
-      <c r="O13">
-        <v>1</v>
-      </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>3</v>
-      </c>
-      <c r="R13">
-        <v>0</v>
-      </c>
-      <c r="S13" s="3">
-        <v>0</v>
-      </c>
-      <c r="T13">
+      <c r="U13">
+        <v>1</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>3</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z13">
         <v>2</v>
       </c>
-      <c r="U13">
-        <v>1</v>
-      </c>
-      <c r="V13">
-        <v>0</v>
-      </c>
-      <c r="W13">
+      <c r="AA13">
+        <v>1</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
         <v>6</v>
       </c>
-      <c r="X13">
+      <c r="AD13">
         <v>8</v>
       </c>
-      <c r="Y13">
-        <v>1</v>
-      </c>
-      <c r="Z13">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="4"/>
+      <c r="AE13">
+        <v>1</v>
+      </c>
+      <c r="AF13">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="4"/>
     </row>
-    <row r="14" spans="1:27">
+    <row r="14" spans="1:33">
       <c r="A14" t="s">
         <v>12</v>
       </c>
-      <c r="F14">
+      <c r="K14">
+        <v>65</v>
+      </c>
+      <c r="L14">
         <v>63</v>
       </c>
-      <c r="G14">
+      <c r="M14">
         <v>43</v>
       </c>
-      <c r="H14">
+      <c r="N14">
         <v>62</v>
       </c>
-      <c r="I14">
+      <c r="O14">
         <v>45</v>
       </c>
-      <c r="J14">
+      <c r="P14">
         <v>28</v>
       </c>
-      <c r="K14">
+      <c r="Q14">
         <v>43</v>
       </c>
-      <c r="L14">
+      <c r="R14">
         <v>48</v>
       </c>
-      <c r="M14">
+      <c r="S14">
         <v>12</v>
       </c>
-      <c r="N14">
+      <c r="T14">
         <v>20</v>
       </c>
-      <c r="O14">
+      <c r="U14">
         <v>13</v>
       </c>
-      <c r="P14">
+      <c r="V14">
         <v>18</v>
       </c>
-      <c r="Q14">
+      <c r="W14">
         <v>20</v>
       </c>
-      <c r="R14">
+      <c r="X14">
         <v>6</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-      <c r="T14">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14">
         <v>12</v>
       </c>
-      <c r="U14">
+      <c r="AA14">
         <v>6</v>
       </c>
-      <c r="V14">
+      <c r="AB14">
         <v>2</v>
       </c>
-      <c r="W14">
+      <c r="AC14">
         <v>4</v>
       </c>
-      <c r="X14">
-        <v>1</v>
-      </c>
-      <c r="Y14">
-        <v>1</v>
-      </c>
-      <c r="Z14">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="4"/>
+      <c r="AD14">
+        <v>1</v>
+      </c>
+      <c r="AE14">
+        <v>1</v>
+      </c>
+      <c r="AF14">
+        <v>0</v>
+      </c>
+      <c r="AG14" s="4"/>
     </row>
-    <row r="15" spans="1:27">
+    <row r="15" spans="1:33">
       <c r="A15" t="s">
         <v>13</v>
       </c>
-      <c r="F15">
+      <c r="K15">
+        <v>31</v>
+      </c>
+      <c r="L15">
         <v>42</v>
       </c>
-      <c r="G15">
+      <c r="M15">
         <v>63</v>
       </c>
-      <c r="H15">
+      <c r="N15">
         <v>56</v>
       </c>
-      <c r="I15">
+      <c r="O15">
         <v>37</v>
       </c>
-      <c r="J15">
+      <c r="P15">
         <v>29</v>
       </c>
-      <c r="K15">
+      <c r="Q15">
         <v>26</v>
       </c>
-      <c r="L15">
+      <c r="R15">
         <v>16</v>
       </c>
-      <c r="M15">
+      <c r="S15">
         <v>7</v>
       </c>
-      <c r="N15">
+      <c r="T15">
         <v>10</v>
       </c>
-      <c r="O15">
+      <c r="U15">
         <v>5</v>
       </c>
-      <c r="P15">
+      <c r="V15">
         <v>7</v>
       </c>
-      <c r="Q15">
+      <c r="W15">
         <v>12</v>
       </c>
-      <c r="R15">
-        <v>0</v>
-      </c>
-      <c r="S15" s="3">
-        <v>1</v>
-      </c>
-      <c r="T15">
-        <v>1</v>
-      </c>
-      <c r="U15">
-        <v>3</v>
-      </c>
-      <c r="V15">
-        <v>3</v>
-      </c>
-      <c r="W15">
-        <v>1</v>
-      </c>
       <c r="X15">
-        <v>3</v>
-      </c>
-      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="3">
         <v>1</v>
       </c>
       <c r="Z15">
-        <v>0</v>
-      </c>
-      <c r="AA15" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="AA15">
+        <v>3</v>
+      </c>
+      <c r="AB15">
+        <v>3</v>
+      </c>
+      <c r="AC15">
+        <v>1</v>
+      </c>
+      <c r="AD15">
+        <v>3</v>
+      </c>
+      <c r="AE15">
+        <v>1</v>
+      </c>
+      <c r="AF15">
+        <v>0</v>
+      </c>
+      <c r="AG15" s="4"/>
     </row>
-    <row r="16" spans="1:27">
+    <row r="16" spans="1:33">
       <c r="A16" t="s">
         <v>14</v>
       </c>
-      <c r="F16">
+      <c r="K16">
+        <v>17</v>
+      </c>
+      <c r="L16">
         <v>20</v>
       </c>
-      <c r="G16">
+      <c r="M16">
         <v>33</v>
       </c>
-      <c r="H16">
+      <c r="N16">
         <v>26</v>
       </c>
-      <c r="I16">
+      <c r="O16">
         <v>16</v>
       </c>
-      <c r="J16">
+      <c r="P16">
         <v>28</v>
       </c>
-      <c r="K16">
+      <c r="Q16">
         <v>32</v>
       </c>
-      <c r="L16">
+      <c r="R16">
         <v>24</v>
       </c>
-      <c r="M16">
+      <c r="S16">
         <v>40</v>
       </c>
-      <c r="N16">
+      <c r="T16">
         <v>17</v>
       </c>
-      <c r="O16">
+      <c r="U16">
         <v>20</v>
       </c>
-      <c r="P16">
+      <c r="V16">
         <v>26</v>
       </c>
-      <c r="Q16">
+      <c r="W16">
         <v>7</v>
       </c>
-      <c r="R16">
+      <c r="X16">
         <v>15</v>
       </c>
-      <c r="S16" s="3">
-        <v>0</v>
-      </c>
-      <c r="T16">
+      <c r="Y16" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z16">
         <v>2</v>
       </c>
-      <c r="U16">
+      <c r="AA16">
         <v>4</v>
       </c>
-      <c r="V16">
+      <c r="AB16">
         <v>4</v>
       </c>
-      <c r="W16">
+      <c r="AC16">
         <v>5</v>
       </c>
-      <c r="X16">
-        <v>1</v>
-      </c>
-      <c r="Y16">
-        <v>3</v>
-      </c>
-      <c r="Z16">
-        <v>0</v>
-      </c>
-      <c r="AA16" s="4"/>
+      <c r="AD16">
+        <v>1</v>
+      </c>
+      <c r="AE16">
+        <v>3</v>
+      </c>
+      <c r="AF16">
+        <v>0</v>
+      </c>
+      <c r="AG16" s="4"/>
     </row>
-    <row r="17" spans="1:27">
+    <row r="17" spans="1:33">
       <c r="A17" t="s">
         <v>15</v>
       </c>
-      <c r="F17">
-        <v>8</v>
-      </c>
-      <c r="G17">
-        <v>7</v>
-      </c>
-      <c r="H17">
-        <v>5</v>
-      </c>
-      <c r="I17">
-        <v>5</v>
-      </c>
-      <c r="J17">
-        <v>10</v>
-      </c>
       <c r="K17">
         <v>6</v>
       </c>
       <c r="L17">
+        <v>8</v>
+      </c>
+      <c r="M17">
+        <v>7</v>
+      </c>
+      <c r="N17">
+        <v>5</v>
+      </c>
+      <c r="O17">
+        <v>5</v>
+      </c>
+      <c r="P17">
+        <v>10</v>
+      </c>
+      <c r="Q17">
+        <v>6</v>
+      </c>
+      <c r="R17">
         <v>9</v>
       </c>
-      <c r="M17">
+      <c r="S17">
         <v>2</v>
       </c>
-      <c r="N17">
+      <c r="T17">
         <v>9</v>
       </c>
-      <c r="O17">
+      <c r="U17">
         <v>9</v>
       </c>
-      <c r="P17">
-        <v>1</v>
-      </c>
-      <c r="Q17">
-        <v>3</v>
-      </c>
-      <c r="R17">
-        <v>1</v>
-      </c>
-      <c r="S17" s="3">
+      <c r="V17">
+        <v>1</v>
+      </c>
+      <c r="W17">
+        <v>3</v>
+      </c>
+      <c r="X17">
+        <v>1</v>
+      </c>
+      <c r="Y17" s="3">
         <v>4</v>
       </c>
-      <c r="T17">
-        <v>3</v>
-      </c>
-      <c r="U17">
-        <v>0</v>
-      </c>
-      <c r="V17">
-        <v>0</v>
-      </c>
-      <c r="W17">
-        <v>1</v>
-      </c>
-      <c r="X17">
-        <v>0</v>
-      </c>
-      <c r="Y17">
-        <v>0</v>
-      </c>
       <c r="Z17">
-        <v>0</v>
-      </c>
-      <c r="AA17" s="4"/>
+        <v>3</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+      <c r="AC17">
+        <v>1</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
+      </c>
+      <c r="AF17">
+        <v>0</v>
+      </c>
+      <c r="AG17" s="4"/>
     </row>
-    <row r="18" spans="1:27">
+    <row r="18" spans="1:33">
       <c r="A18" t="s">
         <v>16</v>
       </c>
-      <c r="F18">
+      <c r="K18">
+        <v>18471</v>
+      </c>
+      <c r="L18">
         <v>16853</v>
       </c>
-      <c r="G18">
+      <c r="M18">
         <v>15489</v>
       </c>
-      <c r="H18">
+      <c r="N18">
         <v>13828</v>
       </c>
-      <c r="I18">
+      <c r="O18">
         <v>12667</v>
       </c>
-      <c r="J18">
+      <c r="P18">
         <v>11427</v>
       </c>
-      <c r="K18">
+      <c r="Q18">
         <v>10242</v>
       </c>
-      <c r="L18">
+      <c r="R18">
         <v>8976</v>
       </c>
-      <c r="M18">
+      <c r="S18">
         <v>8067</v>
       </c>
-      <c r="N18">
+      <c r="T18">
         <v>7312</v>
       </c>
-      <c r="O18">
+      <c r="U18">
         <v>6243</v>
       </c>
-      <c r="P18">
+      <c r="V18">
         <v>5168</v>
       </c>
-      <c r="Q18">
+      <c r="W18">
         <v>3937</v>
       </c>
-      <c r="R18">
+      <c r="X18">
         <v>3184</v>
       </c>
-      <c r="S18">
+      <c r="Y18">
         <v>2704</v>
       </c>
-      <c r="T18">
+      <c r="Z18">
         <v>2122</v>
       </c>
-      <c r="U18">
+      <c r="AA18">
         <v>1770</v>
       </c>
-      <c r="V18">
+      <c r="AB18">
         <v>1479</v>
       </c>
-      <c r="W18">
+      <c r="AC18">
         <v>1187</v>
       </c>
-      <c r="X18">
+      <c r="AD18">
         <v>863</v>
       </c>
-      <c r="Y18">
+      <c r="AE18">
         <v>518</v>
       </c>
-      <c r="Z18">
+      <c r="AF18">
         <v>259</v>
       </c>
-      <c r="AA18" s="4" t="s">
+      <c r="AG18" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:27">
+    <row r="19" spans="1:33">
       <c r="A19" t="s">
         <v>17</v>
       </c>
-      <c r="F19">
+      <c r="K19">
+        <v>23381</v>
+      </c>
+      <c r="L19">
         <v>23573</v>
       </c>
-      <c r="G19">
+      <c r="M19">
         <v>23761</v>
       </c>
-      <c r="H19">
+      <c r="N19">
         <v>23889</v>
       </c>
-      <c r="I19">
+      <c r="O19">
         <v>23700</v>
       </c>
-      <c r="J19">
+      <c r="P19">
         <v>23427</v>
       </c>
-      <c r="K19">
+      <c r="Q19">
         <v>23119</v>
       </c>
-      <c r="L19">
+      <c r="R19">
         <v>22848</v>
       </c>
-      <c r="M19">
+      <c r="S19">
         <v>22499</v>
       </c>
-      <c r="N19">
+      <c r="T19">
         <v>21979</v>
       </c>
-      <c r="O19">
+      <c r="U19">
         <v>21473</v>
       </c>
-      <c r="P19">
+      <c r="V19">
         <v>20602</v>
       </c>
-      <c r="Q19">
+      <c r="W19">
         <v>19791</v>
       </c>
-      <c r="R19">
+      <c r="X19">
         <v>18532</v>
       </c>
-      <c r="S19">
+      <c r="Y19">
         <v>17656</v>
       </c>
-      <c r="T19">
+      <c r="Z19">
         <v>16199</v>
       </c>
-      <c r="U19">
+      <c r="AA19">
         <v>14933</v>
       </c>
-      <c r="V19">
+      <c r="AB19">
         <v>13345</v>
       </c>
-      <c r="W19">
+      <c r="AC19">
         <v>12270</v>
       </c>
-      <c r="X19">
+      <c r="AD19">
         <v>11145</v>
       </c>
-      <c r="Y19">
+      <c r="AE19">
         <v>10071</v>
       </c>
-      <c r="Z19">
+      <c r="AF19">
         <v>8881</v>
       </c>
-      <c r="AA19" s="4" t="s">
+      <c r="AG19" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:27">
+    <row r="20" spans="1:33">
       <c r="A20" t="s">
         <v>18</v>
       </c>
-      <c r="F20">
+      <c r="K20">
+        <v>7029</v>
+      </c>
+      <c r="L20">
         <v>6054</v>
       </c>
-      <c r="G20">
+      <c r="M20">
         <v>5339</v>
       </c>
-      <c r="H20">
+      <c r="N20">
         <v>4593</v>
       </c>
-      <c r="I20">
+      <c r="O20">
         <v>4105</v>
       </c>
-      <c r="J20">
+      <c r="P20">
         <v>3704</v>
       </c>
-      <c r="K20">
+      <c r="Q20">
         <v>3297</v>
       </c>
-      <c r="L20">
+      <c r="R20">
         <v>2837</v>
       </c>
-      <c r="M20">
+      <c r="S20">
         <v>2466</v>
       </c>
-      <c r="N20">
+      <c r="T20">
         <v>2249</v>
       </c>
-      <c r="O20">
+      <c r="U20">
         <v>1884</v>
       </c>
-      <c r="P20">
+      <c r="V20">
         <v>1582</v>
       </c>
-      <c r="Q20">
+      <c r="W20">
         <v>1218</v>
       </c>
-      <c r="R20">
+      <c r="X20">
         <v>991</v>
       </c>
-      <c r="S20">
+      <c r="Y20">
         <v>815</v>
       </c>
-      <c r="T20">
+      <c r="Z20">
         <v>654</v>
       </c>
-      <c r="U20">
+      <c r="AA20">
         <v>556</v>
       </c>
-      <c r="V20">
+      <c r="AB20">
         <v>483</v>
       </c>
-      <c r="W20">
+      <c r="AC20">
         <v>397</v>
       </c>
-      <c r="X20">
+      <c r="AD20">
         <v>282</v>
       </c>
-      <c r="Y20">
+      <c r="AE20">
         <v>171</v>
       </c>
-      <c r="Z20">
+      <c r="AF20">
         <v>95</v>
       </c>
-      <c r="AA20" s="4" t="s">
+      <c r="AG20" s="4" t="s">
         <v>20</v>
       </c>
     </row>

--- a/daily released.xlsx
+++ b/daily released.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liang/code/shanghai-2022Mar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE947BAD-035A-1649-A45F-D0B8EE928E28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A67269B1-98BF-C041-8746-11DD24194A01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5760" yWindow="1480" windowWidth="19840" windowHeight="13820" xr2:uid="{B61748C7-A350-CD4C-8140-E3EEE49B7E25}"/>
   </bookViews>
   <sheets>
-    <sheet name="0422" sheetId="1" r:id="rId1"/>
+    <sheet name="0423" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -498,7 +498,7 @@
   <dimension ref="A1:AG20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -607,6 +607,9 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
+      <c r="J2">
+        <v>230</v>
+      </c>
       <c r="K2">
         <v>134</v>
       </c>
@@ -678,6 +681,9 @@
     <row r="3" spans="1:33">
       <c r="A3" t="s">
         <v>1</v>
+      </c>
+      <c r="J3">
+        <v>29</v>
       </c>
       <c r="K3">
         <v>140</v>
@@ -751,6 +757,9 @@
       <c r="A4" t="s">
         <v>2</v>
       </c>
+      <c r="J4">
+        <v>51</v>
+      </c>
       <c r="K4">
         <v>43</v>
       </c>
@@ -822,6 +831,9 @@
     <row r="5" spans="1:33">
       <c r="A5" t="s">
         <v>3</v>
+      </c>
+      <c r="J5">
+        <v>35</v>
       </c>
       <c r="K5">
         <v>64</v>
@@ -895,6 +907,9 @@
       <c r="A6" t="s">
         <v>4</v>
       </c>
+      <c r="J6">
+        <v>48</v>
+      </c>
       <c r="K6">
         <v>50</v>
       </c>
@@ -967,6 +982,9 @@
       <c r="A7" t="s">
         <v>5</v>
       </c>
+      <c r="J7">
+        <v>35</v>
+      </c>
       <c r="K7">
         <v>37</v>
       </c>
@@ -1039,6 +1057,9 @@
       <c r="A8" t="s">
         <v>6</v>
       </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
       <c r="K8">
         <v>44</v>
       </c>
@@ -1111,6 +1132,9 @@
       <c r="A9" t="s">
         <v>7</v>
       </c>
+      <c r="J9">
+        <v>74</v>
+      </c>
       <c r="K9">
         <v>44</v>
       </c>
@@ -1183,6 +1207,9 @@
       <c r="A10" t="s">
         <v>8</v>
       </c>
+      <c r="J10">
+        <v>213</v>
+      </c>
       <c r="K10">
         <v>269</v>
       </c>
@@ -1255,6 +1282,9 @@
       <c r="A11" t="s">
         <v>9</v>
       </c>
+      <c r="J11">
+        <v>29</v>
+      </c>
       <c r="K11">
         <v>11</v>
       </c>
@@ -1327,6 +1357,9 @@
       <c r="A12" t="s">
         <v>10</v>
       </c>
+      <c r="J12">
+        <v>24</v>
+      </c>
       <c r="K12">
         <v>111</v>
       </c>
@@ -1399,6 +1432,9 @@
       <c r="A13" t="s">
         <v>11</v>
       </c>
+      <c r="J13">
+        <v>8</v>
+      </c>
       <c r="K13">
         <v>9</v>
       </c>
@@ -1471,6 +1507,9 @@
       <c r="A14" t="s">
         <v>12</v>
       </c>
+      <c r="J14">
+        <v>47</v>
+      </c>
       <c r="K14">
         <v>65</v>
       </c>
@@ -1543,6 +1582,9 @@
       <c r="A15" t="s">
         <v>13</v>
       </c>
+      <c r="J15">
+        <v>53</v>
+      </c>
       <c r="K15">
         <v>31</v>
       </c>
@@ -1615,6 +1657,9 @@
       <c r="A16" t="s">
         <v>14</v>
       </c>
+      <c r="J16">
+        <v>14</v>
+      </c>
       <c r="K16">
         <v>17</v>
       </c>
@@ -1687,6 +1732,9 @@
       <c r="A17" t="s">
         <v>15</v>
       </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
       <c r="K17">
         <v>6</v>
       </c>
@@ -1759,6 +1807,9 @@
       <c r="A18" t="s">
         <v>16</v>
       </c>
+      <c r="J18">
+        <v>19621</v>
+      </c>
       <c r="K18">
         <v>18471</v>
       </c>
@@ -1833,6 +1884,9 @@
       <c r="A19" t="s">
         <v>17</v>
       </c>
+      <c r="J19">
+        <v>23336</v>
+      </c>
       <c r="K19">
         <v>23381</v>
       </c>
@@ -1906,6 +1960,9 @@
     <row r="20" spans="1:33">
       <c r="A20" t="s">
         <v>18</v>
+      </c>
+      <c r="J20">
+        <v>7814</v>
       </c>
       <c r="K20">
         <v>7029</v>

--- a/daily released.xlsx
+++ b/daily released.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liang/code/shanghai-2022Mar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A67269B1-98BF-C041-8746-11DD24194A01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F4E7EFA-FF58-B54C-A7C5-FA51377C5622}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="1480" windowWidth="19840" windowHeight="13820" xr2:uid="{B61748C7-A350-CD4C-8140-E3EEE49B7E25}"/>
+    <workbookView xWindow="5760" yWindow="2180" windowWidth="19840" windowHeight="13820" xr2:uid="{B61748C7-A350-CD4C-8140-E3EEE49B7E25}"/>
   </bookViews>
   <sheets>
     <sheet name="0423" sheetId="1" r:id="rId1"/>
@@ -498,7 +498,7 @@
   <dimension ref="A1:AG20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="H2" sqref="H2:H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -607,6 +607,9 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
+      <c r="I2">
+        <v>147</v>
+      </c>
       <c r="J2">
         <v>230</v>
       </c>
@@ -681,6 +684,9 @@
     <row r="3" spans="1:33">
       <c r="A3" t="s">
         <v>1</v>
+      </c>
+      <c r="I3">
+        <v>92</v>
       </c>
       <c r="J3">
         <v>29</v>
@@ -757,6 +763,9 @@
       <c r="A4" t="s">
         <v>2</v>
       </c>
+      <c r="I4">
+        <v>46</v>
+      </c>
       <c r="J4">
         <v>51</v>
       </c>
@@ -831,6 +840,9 @@
     <row r="5" spans="1:33">
       <c r="A5" t="s">
         <v>3</v>
+      </c>
+      <c r="I5">
+        <v>110</v>
       </c>
       <c r="J5">
         <v>35</v>
@@ -907,6 +919,9 @@
       <c r="A6" t="s">
         <v>4</v>
       </c>
+      <c r="I6">
+        <v>12</v>
+      </c>
       <c r="J6">
         <v>48</v>
       </c>
@@ -982,6 +997,9 @@
       <c r="A7" t="s">
         <v>5</v>
       </c>
+      <c r="I7">
+        <v>42</v>
+      </c>
       <c r="J7">
         <v>35</v>
       </c>
@@ -1057,6 +1075,9 @@
       <c r="A8" t="s">
         <v>6</v>
       </c>
+      <c r="I8">
+        <v>78</v>
+      </c>
       <c r="J8">
         <v>0</v>
       </c>
@@ -1132,6 +1153,9 @@
       <c r="A9" t="s">
         <v>7</v>
       </c>
+      <c r="I9">
+        <v>113</v>
+      </c>
       <c r="J9">
         <v>74</v>
       </c>
@@ -1207,6 +1231,9 @@
       <c r="A10" t="s">
         <v>8</v>
       </c>
+      <c r="I10">
+        <v>123</v>
+      </c>
       <c r="J10">
         <v>213</v>
       </c>
@@ -1282,6 +1309,9 @@
       <c r="A11" t="s">
         <v>9</v>
       </c>
+      <c r="I11">
+        <v>59</v>
+      </c>
       <c r="J11">
         <v>29</v>
       </c>
@@ -1357,6 +1387,9 @@
       <c r="A12" t="s">
         <v>10</v>
       </c>
+      <c r="I12">
+        <v>70</v>
+      </c>
       <c r="J12">
         <v>24</v>
       </c>
@@ -1432,6 +1465,9 @@
       <c r="A13" t="s">
         <v>11</v>
       </c>
+      <c r="I13">
+        <v>16</v>
+      </c>
       <c r="J13">
         <v>8</v>
       </c>
@@ -1507,6 +1543,9 @@
       <c r="A14" t="s">
         <v>12</v>
       </c>
+      <c r="I14">
+        <v>122</v>
+      </c>
       <c r="J14">
         <v>47</v>
       </c>
@@ -1582,6 +1621,9 @@
       <c r="A15" t="s">
         <v>13</v>
       </c>
+      <c r="I15">
+        <v>77</v>
+      </c>
       <c r="J15">
         <v>53</v>
       </c>
@@ -1657,6 +1699,9 @@
       <c r="A16" t="s">
         <v>14</v>
       </c>
+      <c r="I16">
+        <v>11</v>
+      </c>
       <c r="J16">
         <v>14</v>
       </c>
@@ -1732,6 +1777,9 @@
       <c r="A17" t="s">
         <v>15</v>
       </c>
+      <c r="I17">
+        <v>2</v>
+      </c>
       <c r="J17">
         <v>0</v>
       </c>
@@ -1807,6 +1855,9 @@
       <c r="A18" t="s">
         <v>16</v>
       </c>
+      <c r="I18">
+        <v>21098</v>
+      </c>
       <c r="J18">
         <v>19621</v>
       </c>
@@ -1884,6 +1935,9 @@
       <c r="A19" t="s">
         <v>17</v>
       </c>
+      <c r="I19">
+        <v>22990</v>
+      </c>
       <c r="J19">
         <v>23336</v>
       </c>
@@ -1960,6 +2014,9 @@
     <row r="20" spans="1:33">
       <c r="A20" t="s">
         <v>18</v>
+      </c>
+      <c r="I20">
+        <v>8814</v>
       </c>
       <c r="J20">
         <v>7814</v>

--- a/daily released.xlsx
+++ b/daily released.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liang/code/shanghai-2022Mar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F4E7EFA-FF58-B54C-A7C5-FA51377C5622}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DB0F105-EE81-D546-81F4-CEE46A208B89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5760" yWindow="2180" windowWidth="19840" windowHeight="13820" xr2:uid="{B61748C7-A350-CD4C-8140-E3EEE49B7E25}"/>
   </bookViews>
   <sheets>
-    <sheet name="0423" sheetId="1" r:id="rId1"/>
+    <sheet name="0425" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -498,7 +498,7 @@
   <dimension ref="A1:AG20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H17"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -607,6 +607,9 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
+      <c r="H2">
+        <v>184</v>
+      </c>
       <c r="I2">
         <v>147</v>
       </c>
@@ -684,6 +687,9 @@
     <row r="3" spans="1:33">
       <c r="A3" t="s">
         <v>1</v>
+      </c>
+      <c r="H3">
+        <v>95</v>
       </c>
       <c r="I3">
         <v>92</v>
@@ -763,6 +769,9 @@
       <c r="A4" t="s">
         <v>2</v>
       </c>
+      <c r="H4">
+        <v>43</v>
+      </c>
       <c r="I4">
         <v>46</v>
       </c>
@@ -840,6 +849,9 @@
     <row r="5" spans="1:33">
       <c r="A5" t="s">
         <v>3</v>
+      </c>
+      <c r="H5">
+        <v>34</v>
       </c>
       <c r="I5">
         <v>110</v>
@@ -919,6 +931,9 @@
       <c r="A6" t="s">
         <v>4</v>
       </c>
+      <c r="H6">
+        <v>16</v>
+      </c>
       <c r="I6">
         <v>12</v>
       </c>
@@ -997,6 +1012,9 @@
       <c r="A7" t="s">
         <v>5</v>
       </c>
+      <c r="H7">
+        <v>66</v>
+      </c>
       <c r="I7">
         <v>42</v>
       </c>
@@ -1075,6 +1093,9 @@
       <c r="A8" t="s">
         <v>6</v>
       </c>
+      <c r="H8">
+        <v>114</v>
+      </c>
       <c r="I8">
         <v>78</v>
       </c>
@@ -1153,6 +1174,9 @@
       <c r="A9" t="s">
         <v>7</v>
       </c>
+      <c r="H9">
+        <v>79</v>
+      </c>
       <c r="I9">
         <v>113</v>
       </c>
@@ -1231,6 +1255,9 @@
       <c r="A10" t="s">
         <v>8</v>
       </c>
+      <c r="H10">
+        <v>102</v>
+      </c>
       <c r="I10">
         <v>123</v>
       </c>
@@ -1309,6 +1336,9 @@
       <c r="A11" t="s">
         <v>9</v>
       </c>
+      <c r="H11">
+        <v>115</v>
+      </c>
       <c r="I11">
         <v>59</v>
       </c>
@@ -1387,6 +1417,9 @@
       <c r="A12" t="s">
         <v>10</v>
       </c>
+      <c r="H12">
+        <v>9</v>
+      </c>
       <c r="I12">
         <v>70</v>
       </c>
@@ -1465,6 +1498,9 @@
       <c r="A13" t="s">
         <v>11</v>
       </c>
+      <c r="H13">
+        <v>6</v>
+      </c>
       <c r="I13">
         <v>16</v>
       </c>
@@ -1543,6 +1579,9 @@
       <c r="A14" t="s">
         <v>12</v>
       </c>
+      <c r="H14">
+        <v>52</v>
+      </c>
       <c r="I14">
         <v>122</v>
       </c>
@@ -1621,6 +1660,9 @@
       <c r="A15" t="s">
         <v>13</v>
       </c>
+      <c r="H15">
+        <v>27</v>
+      </c>
       <c r="I15">
         <v>77</v>
       </c>
@@ -1699,6 +1741,9 @@
       <c r="A16" t="s">
         <v>14</v>
       </c>
+      <c r="H16">
+        <v>16</v>
+      </c>
       <c r="I16">
         <v>11</v>
       </c>
@@ -1777,6 +1822,9 @@
       <c r="A17" t="s">
         <v>15</v>
       </c>
+      <c r="H17">
+        <v>5</v>
+      </c>
       <c r="I17">
         <v>2</v>
       </c>
@@ -1855,6 +1903,9 @@
       <c r="A18" t="s">
         <v>16</v>
       </c>
+      <c r="H18">
+        <v>22267</v>
+      </c>
       <c r="I18">
         <v>21098</v>
       </c>
@@ -1935,6 +1986,9 @@
       <c r="A19" t="s">
         <v>17</v>
       </c>
+      <c r="H19">
+        <v>22710</v>
+      </c>
       <c r="I19">
         <v>22990</v>
       </c>
@@ -2014,6 +2068,9 @@
     <row r="20" spans="1:33">
       <c r="A20" t="s">
         <v>18</v>
+      </c>
+      <c r="H20">
+        <v>9661</v>
       </c>
       <c r="I20">
         <v>8814</v>
